--- a/base_dados.xlsx
+++ b/base_dados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carvalhoe\Documents\GITHUB\HeatExGA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D68EF81-2263-4E9D-8D97-39443A82ACEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CBB028D-CA74-4947-B731-F59E454210B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -948,6 +948,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="12" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -985,7 +986,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1426,36 +1426,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:25">
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="45"/>
-      <c r="F2" s="43" t="s">
+      <c r="C2" s="45"/>
+      <c r="D2" s="46"/>
+      <c r="F2" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="44"/>
-      <c r="H2" s="45"/>
-      <c r="J2" s="41" t="s">
+      <c r="G2" s="45"/>
+      <c r="H2" s="46"/>
+      <c r="J2" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="42"/>
-      <c r="L2" s="42"/>
-      <c r="M2" s="42"/>
-      <c r="N2" s="42"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43"/>
     </row>
     <row r="3" spans="1:25">
-      <c r="B3" s="46"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="48"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="48"/>
-      <c r="J3" s="42"/>
-      <c r="K3" s="42"/>
-      <c r="L3" s="42"/>
-      <c r="M3" s="42"/>
-      <c r="N3" s="42"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="49"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="49"/>
+      <c r="J3" s="43"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="43"/>
+      <c r="M3" s="43"/>
+      <c r="N3" s="43"/>
     </row>
     <row r="4" spans="1:25">
       <c r="B4" s="2" t="s">
@@ -1476,13 +1476,13 @@
       <c r="H4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="41" t="s">
+      <c r="J4" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="42"/>
-      <c r="L4" s="42"/>
-      <c r="M4" s="42"/>
-      <c r="N4" s="42"/>
+      <c r="K4" s="43"/>
+      <c r="L4" s="43"/>
+      <c r="M4" s="43"/>
+      <c r="N4" s="43"/>
     </row>
     <row r="5" spans="1:25" ht="30">
       <c r="A5" s="3">
@@ -1538,13 +1538,13 @@
       <c r="F6" s="4"/>
       <c r="G6" s="11"/>
       <c r="H6" s="6"/>
-      <c r="J6" s="41" t="s">
+      <c r="J6" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="K6" s="42"/>
-      <c r="L6" s="42"/>
-      <c r="M6" s="42"/>
-      <c r="N6" s="42"/>
+      <c r="K6" s="43"/>
+      <c r="L6" s="43"/>
+      <c r="M6" s="43"/>
+      <c r="N6" s="43"/>
     </row>
     <row r="7" spans="1:25" ht="30">
       <c r="A7" s="3">
@@ -1672,13 +1672,13 @@
       <c r="H10" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="J10" s="41" t="s">
+      <c r="J10" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="K10" s="42"/>
-      <c r="L10" s="42"/>
-      <c r="M10" s="42"/>
-      <c r="N10" s="42"/>
+      <c r="K10" s="43"/>
+      <c r="L10" s="43"/>
+      <c r="M10" s="43"/>
+      <c r="N10" s="43"/>
     </row>
     <row r="11" spans="1:25" ht="30">
       <c r="A11" s="3">
@@ -6066,8 +6066,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AH1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:G15"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="AB1" sqref="AB1:AH15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -6607,22 +6607,22 @@
       <c r="G7" s="27">
         <v>0.5</v>
       </c>
-      <c r="I7" s="49" t="s">
+      <c r="I7" s="50" t="s">
         <v>132</v>
       </c>
-      <c r="J7" s="50"/>
-      <c r="K7" s="51"/>
-      <c r="M7" s="52" t="s">
+      <c r="J7" s="51"/>
+      <c r="K7" s="52"/>
+      <c r="M7" s="53" t="s">
         <v>133</v>
       </c>
-      <c r="N7" s="50"/>
-      <c r="O7" s="51"/>
-      <c r="Q7" s="49" t="s">
+      <c r="N7" s="51"/>
+      <c r="O7" s="52"/>
+      <c r="Q7" s="50" t="s">
         <v>134</v>
       </c>
-      <c r="R7" s="50"/>
-      <c r="S7" s="50"/>
-      <c r="T7" s="51"/>
+      <c r="R7" s="51"/>
+      <c r="S7" s="51"/>
+      <c r="T7" s="52"/>
       <c r="AB7" s="8">
         <v>3</v>
       </c>
@@ -7024,24 +7024,24 @@
       </c>
     </row>
     <row r="16" spans="1:34">
-      <c r="A16" s="49" t="s">
+      <c r="A16" s="50" t="s">
         <v>135</v>
       </c>
-      <c r="B16" s="50"/>
-      <c r="C16" s="50"/>
-      <c r="D16" s="50"/>
-      <c r="E16" s="50"/>
-      <c r="F16" s="50"/>
-      <c r="G16" s="51"/>
-      <c r="AB16" s="49" t="s">
+      <c r="B16" s="51"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="52"/>
+      <c r="AB16" s="50" t="s">
         <v>136</v>
       </c>
-      <c r="AC16" s="50"/>
-      <c r="AD16" s="50"/>
-      <c r="AE16" s="50"/>
-      <c r="AF16" s="50"/>
-      <c r="AG16" s="50"/>
-      <c r="AH16" s="51"/>
+      <c r="AC16" s="51"/>
+      <c r="AD16" s="51"/>
+      <c r="AE16" s="51"/>
+      <c r="AF16" s="51"/>
+      <c r="AG16" s="51"/>
+      <c r="AH16" s="52"/>
     </row>
     <row r="17" spans="1:33">
       <c r="A17" s="8">
@@ -8197,50 +8197,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="61" t="s">
         <v>137</v>
       </c>
-      <c r="B1" s="56" t="s">
+      <c r="B1" s="57" t="s">
         <v>138</v>
       </c>
-      <c r="C1" s="54" t="s">
+      <c r="C1" s="55" t="s">
         <v>139</v>
       </c>
-      <c r="D1" s="56" t="s">
+      <c r="D1" s="57" t="s">
         <v>140</v>
       </c>
-      <c r="E1" s="57" t="s">
+      <c r="E1" s="58" t="s">
         <v>141</v>
       </c>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="59"/>
-      <c r="K1" s="60" t="s">
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="60"/>
+      <c r="K1" s="61" t="s">
         <v>142</v>
       </c>
-      <c r="L1" s="56" t="s">
+      <c r="L1" s="57" t="s">
         <v>143</v>
       </c>
-      <c r="M1" s="54" t="s">
+      <c r="M1" s="55" t="s">
         <v>144</v>
       </c>
-      <c r="N1" s="56" t="s">
+      <c r="N1" s="57" t="s">
         <v>145</v>
       </c>
-      <c r="O1" s="57" t="s">
+      <c r="O1" s="58" t="s">
         <v>141</v>
       </c>
-      <c r="P1" s="58"/>
-      <c r="Q1" s="58"/>
-      <c r="R1" s="58"/>
-      <c r="S1" s="59"/>
+      <c r="P1" s="59"/>
+      <c r="Q1" s="59"/>
+      <c r="R1" s="59"/>
+      <c r="S1" s="60"/>
     </row>
     <row r="2" spans="1:19">
-      <c r="A2" s="61"/>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
+      <c r="A2" s="62"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
       <c r="E2" s="2">
         <v>1</v>
       </c>
@@ -8256,10 +8256,10 @@
       <c r="I2" s="29">
         <v>8</v>
       </c>
-      <c r="K2" s="61"/>
-      <c r="L2" s="55"/>
-      <c r="M2" s="55"/>
-      <c r="N2" s="55"/>
+      <c r="K2" s="62"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="56"/>
+      <c r="N2" s="56"/>
       <c r="O2" s="2">
         <v>1</v>
       </c>
@@ -15216,273 +15216,273 @@
       </c>
     </row>
     <row r="118" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A118" s="41"/>
-      <c r="B118" s="41"/>
+      <c r="A118" s="42"/>
+      <c r="B118" s="42"/>
       <c r="C118" s="31"/>
       <c r="D118" s="31"/>
     </row>
     <row r="119" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A119" s="42"/>
-      <c r="B119" s="42"/>
+      <c r="A119" s="43"/>
+      <c r="B119" s="43"/>
       <c r="C119" s="31"/>
       <c r="D119" s="31"/>
     </row>
     <row r="120" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A120" s="42"/>
-      <c r="B120" s="42"/>
+      <c r="A120" s="43"/>
+      <c r="B120" s="43"/>
       <c r="C120" s="31"/>
       <c r="D120" s="31"/>
     </row>
     <row r="121" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A121" s="42"/>
-      <c r="B121" s="42"/>
+      <c r="A121" s="43"/>
+      <c r="B121" s="43"/>
       <c r="C121" s="31"/>
       <c r="D121" s="31"/>
     </row>
     <row r="122" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A122" s="42"/>
-      <c r="B122" s="42"/>
+      <c r="A122" s="43"/>
+      <c r="B122" s="43"/>
       <c r="C122" s="31"/>
       <c r="D122" s="31"/>
     </row>
     <row r="123" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A123" s="53"/>
-      <c r="B123" s="53"/>
+      <c r="A123" s="54"/>
+      <c r="B123" s="54"/>
       <c r="C123" s="31"/>
       <c r="D123" s="38"/>
     </row>
     <row r="124" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A124" s="42"/>
-      <c r="B124" s="42"/>
+      <c r="A124" s="43"/>
+      <c r="B124" s="43"/>
       <c r="C124" s="31"/>
       <c r="D124" s="8"/>
     </row>
     <row r="125" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A125" s="42"/>
-      <c r="B125" s="42"/>
+      <c r="A125" s="43"/>
+      <c r="B125" s="43"/>
       <c r="C125" s="31"/>
       <c r="D125" s="8"/>
     </row>
     <row r="126" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A126" s="42"/>
-      <c r="B126" s="42"/>
+      <c r="A126" s="43"/>
+      <c r="B126" s="43"/>
       <c r="C126" s="31"/>
       <c r="D126" s="39"/>
     </row>
     <row r="127" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A127" s="42"/>
-      <c r="B127" s="42"/>
+      <c r="A127" s="43"/>
+      <c r="B127" s="43"/>
       <c r="C127" s="31"/>
       <c r="D127" s="39"/>
     </row>
     <row r="128" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A128" s="53"/>
-      <c r="B128" s="53"/>
+      <c r="A128" s="54"/>
+      <c r="B128" s="54"/>
       <c r="C128" s="31"/>
     </row>
     <row r="129" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A129" s="42"/>
-      <c r="B129" s="42"/>
+      <c r="A129" s="43"/>
+      <c r="B129" s="43"/>
       <c r="C129" s="31"/>
     </row>
     <row r="130" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A130" s="42"/>
-      <c r="B130" s="42"/>
+      <c r="A130" s="43"/>
+      <c r="B130" s="43"/>
       <c r="C130" s="31"/>
     </row>
     <row r="131" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A131" s="42"/>
-      <c r="B131" s="42"/>
+      <c r="A131" s="43"/>
+      <c r="B131" s="43"/>
       <c r="C131" s="31"/>
       <c r="D131" s="39"/>
     </row>
     <row r="132" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A132" s="42"/>
-      <c r="B132" s="42"/>
+      <c r="A132" s="43"/>
+      <c r="B132" s="43"/>
       <c r="C132" s="31"/>
       <c r="D132" s="39"/>
     </row>
     <row r="133" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A133" s="53"/>
-      <c r="B133" s="53"/>
+      <c r="A133" s="54"/>
+      <c r="B133" s="54"/>
       <c r="C133" s="31"/>
     </row>
     <row r="134" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A134" s="42"/>
-      <c r="B134" s="42"/>
+      <c r="A134" s="43"/>
+      <c r="B134" s="43"/>
       <c r="C134" s="31"/>
     </row>
     <row r="135" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A135" s="42"/>
-      <c r="B135" s="42"/>
+      <c r="A135" s="43"/>
+      <c r="B135" s="43"/>
       <c r="C135" s="31"/>
     </row>
     <row r="136" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A136" s="42"/>
-      <c r="B136" s="42"/>
+      <c r="A136" s="43"/>
+      <c r="B136" s="43"/>
       <c r="C136" s="31"/>
       <c r="D136" s="39"/>
     </row>
     <row r="137" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A137" s="42"/>
-      <c r="B137" s="42"/>
+      <c r="A137" s="43"/>
+      <c r="B137" s="43"/>
       <c r="C137" s="31"/>
       <c r="D137" s="39"/>
     </row>
     <row r="138" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A138" s="53"/>
-      <c r="B138" s="53"/>
+      <c r="A138" s="54"/>
+      <c r="B138" s="54"/>
       <c r="C138" s="31"/>
     </row>
     <row r="139" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A139" s="42"/>
-      <c r="B139" s="42"/>
+      <c r="A139" s="43"/>
+      <c r="B139" s="43"/>
       <c r="C139" s="31"/>
     </row>
     <row r="140" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A140" s="42"/>
-      <c r="B140" s="42"/>
+      <c r="A140" s="43"/>
+      <c r="B140" s="43"/>
       <c r="C140" s="31"/>
     </row>
     <row r="141" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A141" s="42"/>
-      <c r="B141" s="42"/>
+      <c r="A141" s="43"/>
+      <c r="B141" s="43"/>
       <c r="C141" s="31"/>
       <c r="D141" s="39"/>
     </row>
     <row r="142" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A142" s="42"/>
-      <c r="B142" s="42"/>
+      <c r="A142" s="43"/>
+      <c r="B142" s="43"/>
       <c r="C142" s="31"/>
       <c r="D142" s="39"/>
     </row>
     <row r="143" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A143" s="53"/>
-      <c r="B143" s="53"/>
+      <c r="A143" s="54"/>
+      <c r="B143" s="54"/>
       <c r="C143" s="31"/>
     </row>
     <row r="144" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A144" s="42"/>
-      <c r="B144" s="42"/>
+      <c r="A144" s="43"/>
+      <c r="B144" s="43"/>
       <c r="C144" s="31"/>
     </row>
     <row r="145" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A145" s="42"/>
-      <c r="B145" s="42"/>
+      <c r="A145" s="43"/>
+      <c r="B145" s="43"/>
       <c r="C145" s="31"/>
     </row>
     <row r="146" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A146" s="42"/>
-      <c r="B146" s="42"/>
+      <c r="A146" s="43"/>
+      <c r="B146" s="43"/>
       <c r="C146" s="31"/>
       <c r="D146" s="39"/>
     </row>
     <row r="147" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A147" s="42"/>
-      <c r="B147" s="42"/>
+      <c r="A147" s="43"/>
+      <c r="B147" s="43"/>
       <c r="C147" s="31"/>
       <c r="D147" s="39"/>
     </row>
     <row r="148" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A148" s="53"/>
-      <c r="B148" s="53"/>
+      <c r="A148" s="54"/>
+      <c r="B148" s="54"/>
       <c r="C148" s="31"/>
     </row>
     <row r="149" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A149" s="42"/>
-      <c r="B149" s="42"/>
+      <c r="A149" s="43"/>
+      <c r="B149" s="43"/>
       <c r="C149" s="31"/>
     </row>
     <row r="150" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A150" s="42"/>
-      <c r="B150" s="42"/>
+      <c r="A150" s="43"/>
+      <c r="B150" s="43"/>
       <c r="C150" s="31"/>
     </row>
     <row r="151" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A151" s="42"/>
-      <c r="B151" s="42"/>
+      <c r="A151" s="43"/>
+      <c r="B151" s="43"/>
       <c r="C151" s="31"/>
       <c r="D151" s="39"/>
     </row>
     <row r="152" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A152" s="42"/>
-      <c r="B152" s="42"/>
+      <c r="A152" s="43"/>
+      <c r="B152" s="43"/>
       <c r="C152" s="31"/>
       <c r="D152" s="39"/>
     </row>
     <row r="153" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A153" s="53"/>
-      <c r="B153" s="53"/>
+      <c r="A153" s="54"/>
+      <c r="B153" s="54"/>
       <c r="C153" s="31"/>
     </row>
     <row r="154" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A154" s="42"/>
-      <c r="B154" s="42"/>
+      <c r="A154" s="43"/>
+      <c r="B154" s="43"/>
       <c r="C154" s="31"/>
     </row>
     <row r="155" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A155" s="42"/>
-      <c r="B155" s="42"/>
+      <c r="A155" s="43"/>
+      <c r="B155" s="43"/>
       <c r="C155" s="31"/>
     </row>
     <row r="156" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A156" s="42"/>
-      <c r="B156" s="42"/>
+      <c r="A156" s="43"/>
+      <c r="B156" s="43"/>
       <c r="C156" s="31"/>
       <c r="D156" s="39"/>
     </row>
     <row r="157" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A157" s="42"/>
-      <c r="B157" s="42"/>
+      <c r="A157" s="43"/>
+      <c r="B157" s="43"/>
       <c r="C157" s="31"/>
       <c r="D157" s="39"/>
     </row>
     <row r="158" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A158" s="53"/>
-      <c r="B158" s="53"/>
+      <c r="A158" s="54"/>
+      <c r="B158" s="54"/>
       <c r="C158" s="31"/>
     </row>
     <row r="159" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A159" s="42"/>
-      <c r="B159" s="42"/>
+      <c r="A159" s="43"/>
+      <c r="B159" s="43"/>
       <c r="C159" s="31"/>
     </row>
     <row r="160" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A160" s="42"/>
-      <c r="B160" s="42"/>
+      <c r="A160" s="43"/>
+      <c r="B160" s="43"/>
       <c r="C160" s="31"/>
     </row>
     <row r="161" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A161" s="42"/>
-      <c r="B161" s="42"/>
+      <c r="A161" s="43"/>
+      <c r="B161" s="43"/>
       <c r="C161" s="31"/>
       <c r="D161" s="39"/>
     </row>
     <row r="162" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A162" s="42"/>
-      <c r="B162" s="42"/>
+      <c r="A162" s="43"/>
+      <c r="B162" s="43"/>
       <c r="C162" s="31"/>
       <c r="D162" s="39"/>
     </row>
     <row r="163" spans="1:4" ht="15.75" customHeight="1">
-      <c r="B163" s="53"/>
+      <c r="B163" s="54"/>
       <c r="C163" s="31"/>
     </row>
     <row r="164" spans="1:4" ht="15.75" customHeight="1">
-      <c r="B164" s="42"/>
+      <c r="B164" s="43"/>
       <c r="C164" s="31"/>
     </row>
     <row r="165" spans="1:4" ht="15.75" customHeight="1">
-      <c r="B165" s="42"/>
+      <c r="B165" s="43"/>
       <c r="C165" s="31"/>
     </row>
     <row r="166" spans="1:4" ht="15.75" customHeight="1">
-      <c r="B166" s="42"/>
+      <c r="B166" s="43"/>
       <c r="C166" s="31"/>
       <c r="D166" s="39"/>
     </row>
     <row r="167" spans="1:4" ht="15.75" customHeight="1">
-      <c r="B167" s="42"/>
+      <c r="B167" s="43"/>
       <c r="C167" s="31"/>
       <c r="D167" s="39"/>
     </row>
@@ -20143,358 +20143,360 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C105D492-7F2B-4928-9AEB-4881E9AACC3C}">
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1">
-        <v>30</v>
-      </c>
-      <c r="B1">
+    <row r="1" spans="1:13">
+      <c r="A1" s="8">
+        <v>1</v>
+      </c>
+      <c r="B1" s="3">
         <v>100000</v>
       </c>
-      <c r="C1">
+      <c r="C1" s="3">
         <v>10000</v>
       </c>
-      <c r="D1">
-        <v>0.32100000000000001</v>
-      </c>
-      <c r="E1">
-        <v>-0.38800000000000001</v>
-      </c>
-      <c r="F1">
-        <v>1.45</v>
-      </c>
-      <c r="G1">
-        <v>0.51900000000000002</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2">
-        <v>30</v>
-      </c>
-      <c r="B2">
+      <c r="D1" s="3">
+        <v>0.372</v>
+      </c>
+      <c r="E1" s="3">
+        <v>-0.123</v>
+      </c>
+      <c r="F1" s="3">
+        <v>7</v>
+      </c>
+      <c r="G1" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="8">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
         <v>10000</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="3">
         <v>1000</v>
       </c>
-      <c r="D2">
-        <v>0.32100000000000001</v>
-      </c>
-      <c r="E2">
-        <v>-0.38800000000000001</v>
-      </c>
-      <c r="F2">
-        <v>1.45</v>
-      </c>
-      <c r="G2">
-        <v>0.51900000000000002</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3">
-        <v>30</v>
-      </c>
-      <c r="B3">
+      <c r="D2" s="3">
+        <v>0.48599999999999999</v>
+      </c>
+      <c r="E2" s="3">
+        <v>-0.152</v>
+      </c>
+      <c r="F2" s="3">
+        <v>7</v>
+      </c>
+      <c r="G2" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="8">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3">
         <v>1000</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="3">
         <v>100</v>
       </c>
-      <c r="D3">
-        <v>0.59299999999999997</v>
-      </c>
-      <c r="E3">
-        <v>-0.47699999999999998</v>
-      </c>
-      <c r="F3">
-        <v>1.45</v>
-      </c>
-      <c r="G3">
-        <v>0.51900000000000002</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4">
-        <v>30</v>
-      </c>
-      <c r="B4">
+      <c r="D3" s="28">
+        <v>4.57</v>
+      </c>
+      <c r="E3" s="3">
+        <v>-0.47599999999999998</v>
+      </c>
+      <c r="F3" s="3">
+        <v>7</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="8">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3">
         <v>100</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="3">
         <v>10</v>
       </c>
-      <c r="D4">
-        <v>1.36</v>
-      </c>
-      <c r="E4">
-        <v>-0.65700000000000003</v>
-      </c>
-      <c r="F4">
-        <v>1.45</v>
-      </c>
-      <c r="G4">
-        <v>0.51900000000000002</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5">
-        <v>30</v>
-      </c>
-      <c r="B5">
+      <c r="D4" s="28">
+        <v>45.1</v>
+      </c>
+      <c r="E4" s="3">
+        <v>-0.97299999999999998</v>
+      </c>
+      <c r="F4" s="3">
+        <v>7</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="8">
+        <v>1</v>
+      </c>
+      <c r="B5" s="3">
         <v>10</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="3">
         <v>0</v>
       </c>
-      <c r="D5">
-        <v>1.4</v>
-      </c>
-      <c r="E5">
-        <v>-0.65700000000000003</v>
-      </c>
-      <c r="F5">
-        <v>1.45</v>
-      </c>
-      <c r="G5">
-        <v>0.51900000000000002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6">
-        <v>45</v>
-      </c>
-      <c r="B6">
+      <c r="D5" s="28">
+        <v>48</v>
+      </c>
+      <c r="E5" s="28">
+        <v>-1</v>
+      </c>
+      <c r="F5" s="3">
+        <v>7</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="8">
+        <v>3</v>
+      </c>
+      <c r="B6" s="3">
         <v>100000</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="3">
         <v>10000</v>
       </c>
-      <c r="D6">
-        <v>0.37</v>
-      </c>
-      <c r="E6">
-        <v>-0.39600000000000002</v>
-      </c>
-      <c r="F6">
-        <v>1.93</v>
-      </c>
-      <c r="G6">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7">
-        <v>45</v>
-      </c>
-      <c r="B7">
+      <c r="D6" s="3">
+        <v>0.30299999999999999</v>
+      </c>
+      <c r="E6" s="3">
+        <v>-0.126</v>
+      </c>
+      <c r="F6" s="3">
+        <v>6.59</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="8">
+        <v>3</v>
+      </c>
+      <c r="B7" s="3">
         <v>10000</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="3">
         <v>1000</v>
       </c>
-      <c r="D7">
-        <v>0.37</v>
-      </c>
-      <c r="E7">
-        <v>-0.39600000000000002</v>
-      </c>
-      <c r="F7">
-        <v>1.93</v>
-      </c>
-      <c r="G7">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8">
-        <v>45</v>
-      </c>
-      <c r="B8">
+      <c r="D7" s="3">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="E7" s="3">
+        <v>-0.13600000000000001</v>
+      </c>
+      <c r="F7" s="3">
+        <v>6.59</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="8">
+        <v>3</v>
+      </c>
+      <c r="B8" s="3">
         <v>1000</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="3">
         <v>100</v>
       </c>
-      <c r="D8">
-        <v>0.73</v>
-      </c>
-      <c r="E8">
-        <v>-0.5</v>
-      </c>
-      <c r="F8">
-        <v>1.93</v>
-      </c>
-      <c r="G8">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9">
-        <v>45</v>
-      </c>
-      <c r="B9">
+      <c r="D8" s="28">
+        <v>3.5</v>
+      </c>
+      <c r="E8" s="3">
+        <v>-0.47599999999999998</v>
+      </c>
+      <c r="F8" s="3">
+        <v>6.59</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="8">
+        <v>3</v>
+      </c>
+      <c r="B9" s="3">
         <v>100</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="3">
         <v>10</v>
       </c>
-      <c r="D9">
-        <v>0.498</v>
-      </c>
-      <c r="E9">
-        <v>-0.65600000000000003</v>
-      </c>
-      <c r="F9">
-        <v>1.93</v>
-      </c>
-      <c r="G9">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10">
-        <v>45</v>
-      </c>
-      <c r="B10">
+      <c r="D9" s="28">
+        <v>26.2</v>
+      </c>
+      <c r="E9" s="3">
+        <v>-0.91300000000000003</v>
+      </c>
+      <c r="F9" s="3">
+        <v>6.59</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="8">
+        <v>3</v>
+      </c>
+      <c r="B10" s="3">
         <v>10</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="3">
         <v>0</v>
       </c>
-      <c r="D10">
-        <v>1.55</v>
-      </c>
-      <c r="E10">
-        <v>-0.66700000000000004</v>
-      </c>
-      <c r="F10">
-        <v>1.93</v>
-      </c>
-      <c r="G10">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11">
-        <v>90</v>
-      </c>
-      <c r="B11">
+      <c r="D10" s="28">
+        <v>32</v>
+      </c>
+      <c r="E10" s="28">
+        <v>-1</v>
+      </c>
+      <c r="F10" s="3">
+        <v>6.59</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0.52</v>
+      </c>
+      <c r="M10" s="41"/>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="8">
+        <v>2</v>
+      </c>
+      <c r="B11" s="3">
         <v>100000</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="3">
         <v>10000</v>
       </c>
-      <c r="D11">
-        <v>0.37</v>
-      </c>
-      <c r="E11">
-        <v>-0.39500000000000002</v>
-      </c>
-      <c r="F11">
-        <v>1.1870000000000001</v>
-      </c>
-      <c r="G11">
-        <v>0.37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12">
-        <v>90</v>
-      </c>
-      <c r="B12">
+      <c r="D11" s="3">
+        <v>0.39100000000000001</v>
+      </c>
+      <c r="E11" s="3">
+        <v>-0.14799999999999999</v>
+      </c>
+      <c r="F11" s="3">
+        <v>6.3</v>
+      </c>
+      <c r="G11" s="3">
+        <v>0.378</v>
+      </c>
+      <c r="K11" s="41"/>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="8">
+        <v>2</v>
+      </c>
+      <c r="B12" s="3">
         <v>10000</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="3">
         <v>1000</v>
       </c>
-      <c r="D12">
-        <v>0.107</v>
-      </c>
-      <c r="E12">
-        <v>-0.26600000000000001</v>
-      </c>
-      <c r="F12">
-        <v>1.1870000000000001</v>
-      </c>
-      <c r="G12">
-        <v>0.37</v>
-      </c>
-      <c r="K12" s="62"/>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13">
-        <v>90</v>
-      </c>
-      <c r="B13">
+      <c r="D12" s="3">
+        <v>8.1500000000000003E-2</v>
+      </c>
+      <c r="E12" s="3">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="F12" s="3">
+        <v>6.3</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0.378</v>
+      </c>
+      <c r="K12" s="41"/>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="8">
+        <v>2</v>
+      </c>
+      <c r="B13" s="3">
         <v>1000</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="3">
         <v>100</v>
       </c>
-      <c r="D13">
-        <v>0.40799999999999997</v>
-      </c>
-      <c r="E13">
-        <v>-0.46</v>
-      </c>
-      <c r="F13">
-        <v>1.1870000000000001</v>
-      </c>
-      <c r="G13">
-        <v>0.37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14">
-        <v>90</v>
-      </c>
-      <c r="B14">
+      <c r="D13" s="28">
+        <v>6.09</v>
+      </c>
+      <c r="E13" s="3">
+        <v>-0.60199999999999998</v>
+      </c>
+      <c r="F13" s="3">
+        <v>6.3</v>
+      </c>
+      <c r="G13" s="3">
+        <v>0.378</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="8">
+        <v>2</v>
+      </c>
+      <c r="B14" s="3">
         <v>100</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="3">
         <v>10</v>
       </c>
-      <c r="D14">
-        <v>0.9</v>
-      </c>
-      <c r="E14">
-        <v>-0.63100000000000001</v>
-      </c>
-      <c r="F14">
-        <v>1.1870000000000001</v>
-      </c>
-      <c r="G14">
-        <v>0.37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15">
-        <v>90</v>
-      </c>
-      <c r="B15">
+      <c r="D14" s="28">
+        <v>32.1</v>
+      </c>
+      <c r="E14" s="3">
+        <v>-0.96299999999999997</v>
+      </c>
+      <c r="F14" s="3">
+        <v>6.3</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0.378</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="8">
+        <v>2</v>
+      </c>
+      <c r="B15" s="3">
         <v>10</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="3">
         <v>0</v>
       </c>
-      <c r="D15">
-        <v>0.97</v>
-      </c>
-      <c r="E15">
-        <v>-0.66700000000000004</v>
-      </c>
-      <c r="F15">
-        <v>1.1870000000000001</v>
-      </c>
-      <c r="G15">
-        <v>0.37</v>
+      <c r="D15" s="28">
+        <v>35</v>
+      </c>
+      <c r="E15" s="28">
+        <v>-1</v>
+      </c>
+      <c r="F15" s="3">
+        <v>6.3</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0.378</v>
       </c>
     </row>
   </sheetData>

--- a/base_dados.xlsx
+++ b/base_dados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carvalhoe\Documents\GITHUB\HeatExGA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CBB028D-CA74-4947-B731-F59E454210B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B39AEC6-4496-42B7-8A84-83457AEC4907}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -884,7 +884,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -969,16 +969,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
@@ -986,6 +976,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -8197,50 +8199,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="57" t="s">
         <v>137</v>
       </c>
-      <c r="B1" s="57" t="s">
+      <c r="B1" s="59" t="s">
         <v>138</v>
       </c>
-      <c r="C1" s="55" t="s">
+      <c r="C1" s="61" t="s">
         <v>139</v>
       </c>
-      <c r="D1" s="57" t="s">
+      <c r="D1" s="59" t="s">
         <v>140</v>
       </c>
-      <c r="E1" s="58" t="s">
+      <c r="E1" s="54" t="s">
         <v>141</v>
       </c>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="60"/>
-      <c r="K1" s="61" t="s">
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="56"/>
+      <c r="K1" s="57" t="s">
         <v>142</v>
       </c>
-      <c r="L1" s="57" t="s">
+      <c r="L1" s="59" t="s">
         <v>143</v>
       </c>
-      <c r="M1" s="55" t="s">
+      <c r="M1" s="61" t="s">
         <v>144</v>
       </c>
-      <c r="N1" s="57" t="s">
+      <c r="N1" s="59" t="s">
         <v>145</v>
       </c>
-      <c r="O1" s="58" t="s">
+      <c r="O1" s="54" t="s">
         <v>141</v>
       </c>
-      <c r="P1" s="59"/>
-      <c r="Q1" s="59"/>
-      <c r="R1" s="59"/>
-      <c r="S1" s="60"/>
+      <c r="P1" s="55"/>
+      <c r="Q1" s="55"/>
+      <c r="R1" s="55"/>
+      <c r="S1" s="56"/>
     </row>
     <row r="2" spans="1:19">
-      <c r="A2" s="62"/>
-      <c r="B2" s="56"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
+      <c r="A2" s="58"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
       <c r="E2" s="2">
         <v>1</v>
       </c>
@@ -8256,10 +8258,10 @@
       <c r="I2" s="29">
         <v>8</v>
       </c>
-      <c r="K2" s="62"/>
-      <c r="L2" s="56"/>
-      <c r="M2" s="56"/>
-      <c r="N2" s="56"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="60"/>
+      <c r="N2" s="60"/>
       <c r="O2" s="2">
         <v>1</v>
       </c>
@@ -15246,8 +15248,8 @@
       <c r="D122" s="31"/>
     </row>
     <row r="123" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A123" s="54"/>
-      <c r="B123" s="54"/>
+      <c r="A123" s="62"/>
+      <c r="B123" s="62"/>
       <c r="C123" s="31"/>
       <c r="D123" s="38"/>
     </row>
@@ -15276,8 +15278,8 @@
       <c r="D127" s="39"/>
     </row>
     <row r="128" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A128" s="54"/>
-      <c r="B128" s="54"/>
+      <c r="A128" s="62"/>
+      <c r="B128" s="62"/>
       <c r="C128" s="31"/>
     </row>
     <row r="129" spans="1:4" ht="15.75" customHeight="1">
@@ -15303,8 +15305,8 @@
       <c r="D132" s="39"/>
     </row>
     <row r="133" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A133" s="54"/>
-      <c r="B133" s="54"/>
+      <c r="A133" s="62"/>
+      <c r="B133" s="62"/>
       <c r="C133" s="31"/>
     </row>
     <row r="134" spans="1:4" ht="15.75" customHeight="1">
@@ -15330,8 +15332,8 @@
       <c r="D137" s="39"/>
     </row>
     <row r="138" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A138" s="54"/>
-      <c r="B138" s="54"/>
+      <c r="A138" s="62"/>
+      <c r="B138" s="62"/>
       <c r="C138" s="31"/>
     </row>
     <row r="139" spans="1:4" ht="15.75" customHeight="1">
@@ -15357,8 +15359,8 @@
       <c r="D142" s="39"/>
     </row>
     <row r="143" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A143" s="54"/>
-      <c r="B143" s="54"/>
+      <c r="A143" s="62"/>
+      <c r="B143" s="62"/>
       <c r="C143" s="31"/>
     </row>
     <row r="144" spans="1:4" ht="15.75" customHeight="1">
@@ -15384,8 +15386,8 @@
       <c r="D147" s="39"/>
     </row>
     <row r="148" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A148" s="54"/>
-      <c r="B148" s="54"/>
+      <c r="A148" s="62"/>
+      <c r="B148" s="62"/>
       <c r="C148" s="31"/>
     </row>
     <row r="149" spans="1:4" ht="15.75" customHeight="1">
@@ -15411,8 +15413,8 @@
       <c r="D152" s="39"/>
     </row>
     <row r="153" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A153" s="54"/>
-      <c r="B153" s="54"/>
+      <c r="A153" s="62"/>
+      <c r="B153" s="62"/>
       <c r="C153" s="31"/>
     </row>
     <row r="154" spans="1:4" ht="15.75" customHeight="1">
@@ -15438,8 +15440,8 @@
       <c r="D157" s="39"/>
     </row>
     <row r="158" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A158" s="54"/>
-      <c r="B158" s="54"/>
+      <c r="A158" s="62"/>
+      <c r="B158" s="62"/>
       <c r="C158" s="31"/>
     </row>
     <row r="159" spans="1:4" ht="15.75" customHeight="1">
@@ -15465,7 +15467,7 @@
       <c r="D162" s="39"/>
     </row>
     <row r="163" spans="1:4" ht="15.75" customHeight="1">
-      <c r="B163" s="54"/>
+      <c r="B163" s="62"/>
       <c r="C163" s="31"/>
     </row>
     <row r="164" spans="1:4" ht="15.75" customHeight="1">
@@ -18007,19 +18009,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="O1:S1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:I1"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="A143:A147"/>
-    <mergeCell ref="A148:A152"/>
-    <mergeCell ref="A153:A157"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="N1:N2"/>
     <mergeCell ref="B163:B167"/>
     <mergeCell ref="A118:A122"/>
     <mergeCell ref="B118:B122"/>
@@ -18036,6 +18025,19 @@
     <mergeCell ref="B158:B162"/>
     <mergeCell ref="A133:A137"/>
     <mergeCell ref="A138:A142"/>
+    <mergeCell ref="A143:A147"/>
+    <mergeCell ref="A148:A152"/>
+    <mergeCell ref="A153:A157"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="O1:S1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:I1"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="L1:L2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -20143,360 +20145,3335 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C105D492-7F2B-4928-9AEB-4881E9AACC3C}">
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:M115"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="4" max="4" width="9.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="8">
-        <v>1</v>
-      </c>
-      <c r="B1" s="3">
-        <v>100000</v>
-      </c>
-      <c r="C1" s="3">
-        <v>10000</v>
-      </c>
-      <c r="D1" s="3">
-        <v>0.372</v>
-      </c>
-      <c r="E1" s="3">
-        <v>-0.123</v>
-      </c>
-      <c r="F1" s="3">
-        <v>7</v>
-      </c>
-      <c r="G1" s="3">
-        <v>0.5</v>
-      </c>
+      <c r="A1" s="31">
+        <v>8.0709999999999997</v>
+      </c>
+      <c r="B1" s="63">
+        <v>6.8209999999999997</v>
+      </c>
+      <c r="C1" s="63">
+        <v>0.75</v>
+      </c>
+      <c r="D1" s="63">
+        <v>1</v>
+      </c>
+      <c r="E1" s="63">
+        <v>38</v>
+      </c>
+      <c r="F1" s="63">
+        <v>32</v>
+      </c>
+      <c r="G1" s="63">
+        <v>26</v>
+      </c>
+      <c r="H1" s="64">
+        <v>24</v>
+      </c>
+      <c r="I1" s="64"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="8">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3">
-        <v>10000</v>
-      </c>
-      <c r="C2" s="3">
-        <v>1000</v>
-      </c>
-      <c r="D2" s="3">
-        <v>0.48599999999999999</v>
-      </c>
-      <c r="E2" s="3">
-        <v>-0.152</v>
-      </c>
-      <c r="F2" s="3">
-        <v>7</v>
-      </c>
-      <c r="G2" s="3">
-        <v>0.5</v>
-      </c>
+      <c r="A2" s="31">
+        <v>8.0709999999999997</v>
+      </c>
+      <c r="B2" s="63">
+        <v>6.8209999999999997</v>
+      </c>
+      <c r="C2" s="63">
+        <v>0.75</v>
+      </c>
+      <c r="D2" s="63">
+        <v>2</v>
+      </c>
+      <c r="E2" s="63">
+        <v>32</v>
+      </c>
+      <c r="F2" s="63">
+        <v>26</v>
+      </c>
+      <c r="G2" s="63">
+        <v>20</v>
+      </c>
+      <c r="H2" s="64">
+        <v>20</v>
+      </c>
+      <c r="I2" s="64"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="8">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3">
-        <v>1000</v>
-      </c>
-      <c r="C3" s="3">
-        <v>100</v>
-      </c>
-      <c r="D3" s="28">
-        <v>4.57</v>
-      </c>
-      <c r="E3" s="3">
-        <v>-0.47599999999999998</v>
-      </c>
-      <c r="F3" s="3">
-        <v>7</v>
-      </c>
-      <c r="G3" s="3">
-        <v>0.5</v>
-      </c>
+      <c r="A3" s="31">
+        <v>8.0709999999999997</v>
+      </c>
+      <c r="B3" s="63">
+        <v>6.8209999999999997</v>
+      </c>
+      <c r="C3" s="63">
+        <v>0.75</v>
+      </c>
+      <c r="D3" s="31">
+        <v>3</v>
+      </c>
+      <c r="E3" s="63">
+        <v>37</v>
+      </c>
+      <c r="F3" s="63">
+        <v>30</v>
+      </c>
+      <c r="G3" s="63">
+        <v>24</v>
+      </c>
+      <c r="H3" s="64">
+        <v>24</v>
+      </c>
+      <c r="I3" s="64"/>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="8">
-        <v>1</v>
-      </c>
-      <c r="B4" s="3">
-        <v>100</v>
-      </c>
-      <c r="C4" s="3">
+      <c r="A4" s="31">
+        <v>8.0709999999999997</v>
+      </c>
+      <c r="B4" s="63">
+        <v>6.8209999999999997</v>
+      </c>
+      <c r="C4" s="63">
+        <v>1</v>
+      </c>
+      <c r="D4" s="31">
+        <v>4</v>
+      </c>
+      <c r="E4" s="63">
+        <v>21</v>
+      </c>
+      <c r="F4" s="63">
+        <v>16</v>
+      </c>
+      <c r="G4" s="63">
+        <v>16</v>
+      </c>
+      <c r="H4" s="64">
+        <v>14</v>
+      </c>
+      <c r="I4" s="64"/>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="31">
+        <v>8.0709999999999997</v>
+      </c>
+      <c r="B5" s="63">
+        <v>6.8209999999999997</v>
+      </c>
+      <c r="C5" s="63">
+        <v>1</v>
+      </c>
+      <c r="D5" s="31">
+        <v>5</v>
+      </c>
+      <c r="E5" s="31">
+        <v>22</v>
+      </c>
+      <c r="F5" s="63">
+        <v>18</v>
+      </c>
+      <c r="G5" s="63">
+        <v>16</v>
+      </c>
+      <c r="H5" s="64">
+        <v>14</v>
+      </c>
+      <c r="I5" s="64"/>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="31">
         <v>10</v>
       </c>
-      <c r="D4" s="28">
-        <v>45.1</v>
-      </c>
-      <c r="E4" s="3">
-        <v>-0.97299999999999998</v>
-      </c>
-      <c r="F4" s="3">
-        <v>7</v>
-      </c>
-      <c r="G4" s="3">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="8">
-        <v>1</v>
-      </c>
-      <c r="B5" s="3">
+      <c r="B6" s="63">
+        <v>8.77</v>
+      </c>
+      <c r="C6" s="63">
+        <v>0.75</v>
+      </c>
+      <c r="D6" s="63">
+        <v>1</v>
+      </c>
+      <c r="E6" s="63">
+        <v>62</v>
+      </c>
+      <c r="F6" s="63">
+        <v>56</v>
+      </c>
+      <c r="G6" s="63">
+        <v>47</v>
+      </c>
+      <c r="H6" s="64">
+        <v>42</v>
+      </c>
+      <c r="I6" s="64">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="31">
         <v>10</v>
       </c>
-      <c r="C5" s="3">
-        <v>0</v>
-      </c>
-      <c r="D5" s="28">
+      <c r="B7" s="63">
+        <v>8.77</v>
+      </c>
+      <c r="C7" s="63">
+        <v>0.75</v>
+      </c>
+      <c r="D7" s="63">
+        <v>2</v>
+      </c>
+      <c r="E7" s="63">
+        <v>52</v>
+      </c>
+      <c r="F7" s="63">
+        <v>52</v>
+      </c>
+      <c r="G7" s="63">
+        <v>40</v>
+      </c>
+      <c r="H7" s="64">
+        <v>36</v>
+      </c>
+      <c r="I7" s="64"/>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="31">
+        <v>10</v>
+      </c>
+      <c r="B8" s="63">
+        <v>8.77</v>
+      </c>
+      <c r="C8" s="63">
+        <v>0.75</v>
+      </c>
+      <c r="D8" s="31">
+        <v>3</v>
+      </c>
+      <c r="E8" s="63">
+        <v>61</v>
+      </c>
+      <c r="F8" s="63">
+        <v>52</v>
+      </c>
+      <c r="G8" s="63">
         <v>48</v>
       </c>
-      <c r="E5" s="28">
-        <v>-1</v>
-      </c>
-      <c r="F5" s="3">
-        <v>7</v>
-      </c>
-      <c r="G5" s="3">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="8">
+      <c r="H8" s="64">
+        <v>48</v>
+      </c>
+      <c r="I8" s="64"/>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="31">
+        <v>10</v>
+      </c>
+      <c r="B9" s="63">
+        <v>8.77</v>
+      </c>
+      <c r="C9" s="63">
+        <v>1</v>
+      </c>
+      <c r="D9" s="31">
+        <v>4</v>
+      </c>
+      <c r="E9" s="63">
+        <v>32</v>
+      </c>
+      <c r="F9" s="63">
+        <v>32</v>
+      </c>
+      <c r="G9" s="63">
+        <v>26</v>
+      </c>
+      <c r="H9" s="64">
+        <v>24</v>
+      </c>
+      <c r="I9" s="64"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="31">
+        <v>10</v>
+      </c>
+      <c r="B10" s="63">
+        <v>8.77</v>
+      </c>
+      <c r="C10" s="63">
+        <v>1</v>
+      </c>
+      <c r="D10" s="31">
+        <v>5</v>
+      </c>
+      <c r="E10" s="31">
+        <v>37</v>
+      </c>
+      <c r="F10" s="63">
+        <v>32</v>
+      </c>
+      <c r="G10" s="63">
+        <v>28</v>
+      </c>
+      <c r="H10" s="64">
+        <v>28</v>
+      </c>
+      <c r="I10" s="64"/>
+      <c r="M10" s="41"/>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="31">
+        <v>12</v>
+      </c>
+      <c r="B11" s="63">
+        <v>10.75</v>
+      </c>
+      <c r="C11" s="63">
+        <v>0.75</v>
+      </c>
+      <c r="D11" s="63">
+        <v>1</v>
+      </c>
+      <c r="E11" s="63">
+        <v>109</v>
+      </c>
+      <c r="F11" s="63">
+        <v>98</v>
+      </c>
+      <c r="G11" s="63">
+        <v>86</v>
+      </c>
+      <c r="H11" s="64">
+        <v>82</v>
+      </c>
+      <c r="I11" s="64">
+        <v>78</v>
+      </c>
+      <c r="K11" s="41"/>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="31">
+        <v>12</v>
+      </c>
+      <c r="B12" s="63">
+        <v>10.75</v>
+      </c>
+      <c r="C12" s="63">
+        <v>0.75</v>
+      </c>
+      <c r="D12" s="63">
+        <v>2</v>
+      </c>
+      <c r="E12" s="63">
+        <v>80</v>
+      </c>
+      <c r="F12" s="63">
+        <v>72</v>
+      </c>
+      <c r="G12" s="63">
+        <v>68</v>
+      </c>
+      <c r="H12" s="64">
+        <v>68</v>
+      </c>
+      <c r="I12" s="64">
+        <v>60</v>
+      </c>
+      <c r="K12" s="41"/>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="31">
+        <v>12</v>
+      </c>
+      <c r="B13" s="63">
+        <v>10.75</v>
+      </c>
+      <c r="C13" s="63">
+        <v>0.75</v>
+      </c>
+      <c r="D13" s="31">
         <v>3</v>
       </c>
-      <c r="B6" s="3">
-        <v>100000</v>
-      </c>
-      <c r="C6" s="3">
-        <v>10000</v>
-      </c>
-      <c r="D6" s="3">
-        <v>0.30299999999999999</v>
-      </c>
-      <c r="E6" s="3">
-        <v>-0.126</v>
-      </c>
-      <c r="F6" s="3">
-        <v>6.59</v>
-      </c>
-      <c r="G6" s="3">
-        <v>0.52</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="8">
+      <c r="E13" s="63">
+        <v>90</v>
+      </c>
+      <c r="F13" s="63">
+        <v>84</v>
+      </c>
+      <c r="G13" s="63">
+        <v>72</v>
+      </c>
+      <c r="H13" s="64">
+        <v>70</v>
+      </c>
+      <c r="I13" s="64">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="31">
+        <v>12</v>
+      </c>
+      <c r="B14" s="63">
+        <v>10.75</v>
+      </c>
+      <c r="C14" s="63">
+        <v>1</v>
+      </c>
+      <c r="D14" s="31">
+        <v>4</v>
+      </c>
+      <c r="E14" s="63">
+        <v>48</v>
+      </c>
+      <c r="F14" s="63">
+        <v>44</v>
+      </c>
+      <c r="G14" s="63">
+        <v>40</v>
+      </c>
+      <c r="H14" s="64">
+        <v>38</v>
+      </c>
+      <c r="I14" s="64">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="31">
+        <v>12</v>
+      </c>
+      <c r="B15" s="63">
+        <v>10.75</v>
+      </c>
+      <c r="C15" s="63">
+        <v>1</v>
+      </c>
+      <c r="D15" s="31">
+        <v>5</v>
+      </c>
+      <c r="E15" s="31">
+        <v>57</v>
+      </c>
+      <c r="F15" s="63">
+        <v>52</v>
+      </c>
+      <c r="G15" s="63">
+        <v>44</v>
+      </c>
+      <c r="H15" s="64">
+        <v>42</v>
+      </c>
+      <c r="I15" s="64">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="64">
+        <v>13.25</v>
+      </c>
+      <c r="B16" s="64">
+        <v>12</v>
+      </c>
+      <c r="C16" s="64">
+        <v>0.75</v>
+      </c>
+      <c r="D16" s="64">
+        <v>1</v>
+      </c>
+      <c r="E16" s="64">
+        <v>127</v>
+      </c>
+      <c r="F16" s="64">
+        <v>114</v>
+      </c>
+      <c r="G16" s="64">
+        <v>96</v>
+      </c>
+      <c r="H16" s="64">
+        <v>90</v>
+      </c>
+      <c r="I16" s="64">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="64">
+        <v>13.25</v>
+      </c>
+      <c r="B17" s="64">
+        <v>12</v>
+      </c>
+      <c r="C17" s="64">
+        <v>0.75</v>
+      </c>
+      <c r="D17" s="64">
+        <v>2</v>
+      </c>
+      <c r="E17" s="64">
+        <v>95</v>
+      </c>
+      <c r="F17" s="64">
+        <v>90</v>
+      </c>
+      <c r="G17" s="64">
+        <v>81</v>
+      </c>
+      <c r="H17" s="64">
+        <v>77</v>
+      </c>
+      <c r="I17" s="64">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="64">
+        <v>13.25</v>
+      </c>
+      <c r="B18" s="64">
+        <v>12</v>
+      </c>
+      <c r="C18" s="64">
+        <v>0.75</v>
+      </c>
+      <c r="D18" s="64">
         <v>3</v>
       </c>
-      <c r="B7" s="3">
-        <v>10000</v>
-      </c>
-      <c r="C7" s="3">
-        <v>1000</v>
-      </c>
-      <c r="D7" s="3">
-        <v>0.33300000000000002</v>
-      </c>
-      <c r="E7" s="3">
-        <v>-0.13600000000000001</v>
-      </c>
-      <c r="F7" s="3">
-        <v>6.59</v>
-      </c>
-      <c r="G7" s="3">
-        <v>0.52</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" s="8">
+      <c r="E18" s="64">
+        <v>110</v>
+      </c>
+      <c r="F18" s="64">
+        <v>101</v>
+      </c>
+      <c r="G18" s="64">
+        <v>90</v>
+      </c>
+      <c r="H18" s="64">
+        <v>88</v>
+      </c>
+      <c r="I18" s="64">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="64">
+        <v>13.25</v>
+      </c>
+      <c r="B19" s="64">
+        <v>12</v>
+      </c>
+      <c r="C19" s="64">
+        <v>1</v>
+      </c>
+      <c r="D19" s="64">
+        <v>4</v>
+      </c>
+      <c r="E19" s="64">
+        <v>60</v>
+      </c>
+      <c r="F19" s="64">
+        <v>54</v>
+      </c>
+      <c r="G19" s="64">
+        <v>51</v>
+      </c>
+      <c r="H19" s="64">
+        <v>46</v>
+      </c>
+      <c r="I19" s="64">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="64">
+        <v>13.25</v>
+      </c>
+      <c r="B20" s="64">
+        <v>12</v>
+      </c>
+      <c r="C20" s="64">
+        <v>1</v>
+      </c>
+      <c r="D20" s="64">
+        <v>5</v>
+      </c>
+      <c r="E20" s="64">
+        <v>67</v>
+      </c>
+      <c r="F20" s="64">
+        <v>63</v>
+      </c>
+      <c r="G20" s="64">
+        <v>56</v>
+      </c>
+      <c r="H20" s="64">
+        <v>54</v>
+      </c>
+      <c r="I20" s="64">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="64">
+        <v>15.25</v>
+      </c>
+      <c r="B21" s="64">
+        <v>14</v>
+      </c>
+      <c r="C21" s="64">
+        <v>0.75</v>
+      </c>
+      <c r="D21" s="64">
+        <v>1</v>
+      </c>
+      <c r="E21" s="64">
+        <v>170</v>
+      </c>
+      <c r="F21" s="64">
+        <v>160</v>
+      </c>
+      <c r="G21" s="64">
+        <v>140</v>
+      </c>
+      <c r="H21" s="64">
+        <v>136</v>
+      </c>
+      <c r="I21" s="64">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="64">
+        <v>15.25</v>
+      </c>
+      <c r="B22" s="64">
+        <v>14</v>
+      </c>
+      <c r="C22" s="64">
+        <v>0.75</v>
+      </c>
+      <c r="D22" s="64">
+        <v>2</v>
+      </c>
+      <c r="E22" s="64">
+        <v>138</v>
+      </c>
+      <c r="F22" s="64">
+        <v>132</v>
+      </c>
+      <c r="G22" s="64">
+        <v>116</v>
+      </c>
+      <c r="H22" s="64">
+        <v>112</v>
+      </c>
+      <c r="I22" s="64">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="64">
+        <v>15.25</v>
+      </c>
+      <c r="B23" s="64">
+        <v>14</v>
+      </c>
+      <c r="C23" s="64">
+        <v>0.75</v>
+      </c>
+      <c r="D23" s="64">
         <v>3</v>
       </c>
-      <c r="B8" s="3">
-        <v>1000</v>
-      </c>
-      <c r="C8" s="3">
-        <v>100</v>
-      </c>
-      <c r="D8" s="28">
-        <v>3.5</v>
-      </c>
-      <c r="E8" s="3">
-        <v>-0.47599999999999998</v>
-      </c>
-      <c r="F8" s="3">
-        <v>6.59</v>
-      </c>
-      <c r="G8" s="3">
-        <v>0.52</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" s="8">
+      <c r="E23" s="64">
+        <v>163</v>
+      </c>
+      <c r="F23" s="64">
+        <v>152</v>
+      </c>
+      <c r="G23" s="64">
+        <v>136</v>
+      </c>
+      <c r="H23" s="64">
+        <v>133</v>
+      </c>
+      <c r="I23" s="64">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="64">
+        <v>15.25</v>
+      </c>
+      <c r="B24" s="64">
+        <v>14</v>
+      </c>
+      <c r="C24" s="64">
+        <v>1</v>
+      </c>
+      <c r="D24" s="64">
+        <v>4</v>
+      </c>
+      <c r="E24" s="64">
+        <v>88</v>
+      </c>
+      <c r="F24" s="64">
+        <v>82</v>
+      </c>
+      <c r="G24" s="64">
+        <v>75</v>
+      </c>
+      <c r="H24" s="64">
+        <v>70</v>
+      </c>
+      <c r="I24" s="64">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="64">
+        <v>15.25</v>
+      </c>
+      <c r="B25" s="64">
+        <v>14</v>
+      </c>
+      <c r="C25" s="64">
+        <v>1</v>
+      </c>
+      <c r="D25" s="64">
+        <v>5</v>
+      </c>
+      <c r="E25" s="64">
+        <v>96</v>
+      </c>
+      <c r="F25" s="64">
+        <v>92</v>
+      </c>
+      <c r="G25" s="64">
+        <v>86</v>
+      </c>
+      <c r="H25" s="64">
+        <v>84</v>
+      </c>
+      <c r="I25" s="64">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="64">
+        <v>17.25</v>
+      </c>
+      <c r="B26" s="64">
+        <v>16</v>
+      </c>
+      <c r="C26" s="64">
+        <v>0.75</v>
+      </c>
+      <c r="D26" s="64">
+        <v>1</v>
+      </c>
+      <c r="E26" s="64">
+        <v>239</v>
+      </c>
+      <c r="F26" s="64">
+        <v>224</v>
+      </c>
+      <c r="G26" s="64">
+        <v>194</v>
+      </c>
+      <c r="H26" s="64">
+        <v>188</v>
+      </c>
+      <c r="I26" s="64">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="64">
+        <v>17.25</v>
+      </c>
+      <c r="B27" s="64">
+        <v>16</v>
+      </c>
+      <c r="C27" s="64">
+        <v>0.75</v>
+      </c>
+      <c r="D27" s="64">
+        <v>2</v>
+      </c>
+      <c r="E27" s="64">
+        <v>188</v>
+      </c>
+      <c r="F27" s="64">
+        <v>178</v>
+      </c>
+      <c r="G27" s="64">
+        <v>168</v>
+      </c>
+      <c r="H27" s="64">
+        <v>164</v>
+      </c>
+      <c r="I27" s="64">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="64">
+        <v>17.25</v>
+      </c>
+      <c r="B28" s="64">
+        <v>16</v>
+      </c>
+      <c r="C28" s="64">
+        <v>0.75</v>
+      </c>
+      <c r="D28" s="64">
         <v>3</v>
       </c>
-      <c r="B9" s="3">
-        <v>100</v>
-      </c>
-      <c r="C9" s="3">
-        <v>10</v>
-      </c>
-      <c r="D9" s="28">
-        <v>26.2</v>
-      </c>
-      <c r="E9" s="3">
-        <v>-0.91300000000000003</v>
-      </c>
-      <c r="F9" s="3">
-        <v>6.59</v>
-      </c>
-      <c r="G9" s="3">
-        <v>0.52</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10" s="8">
+      <c r="E28" s="64">
+        <v>211</v>
+      </c>
+      <c r="F28" s="64">
+        <v>201</v>
+      </c>
+      <c r="G28" s="64">
+        <v>181</v>
+      </c>
+      <c r="H28" s="64">
+        <v>176</v>
+      </c>
+      <c r="I28" s="64">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="64">
+        <v>17.25</v>
+      </c>
+      <c r="B29" s="64">
+        <v>16</v>
+      </c>
+      <c r="C29" s="64">
+        <v>1</v>
+      </c>
+      <c r="D29" s="64">
+        <v>4</v>
+      </c>
+      <c r="E29" s="64">
+        <v>112</v>
+      </c>
+      <c r="F29" s="64">
+        <v>110</v>
+      </c>
+      <c r="G29" s="64">
+        <v>102</v>
+      </c>
+      <c r="H29" s="64">
+        <v>98</v>
+      </c>
+      <c r="I29" s="64">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="64">
+        <v>17.25</v>
+      </c>
+      <c r="B30" s="64">
+        <v>16</v>
+      </c>
+      <c r="C30" s="64">
+        <v>1</v>
+      </c>
+      <c r="D30" s="64">
+        <v>5</v>
+      </c>
+      <c r="E30" s="64">
+        <v>130</v>
+      </c>
+      <c r="F30" s="64">
+        <v>124</v>
+      </c>
+      <c r="G30" s="64">
+        <v>116</v>
+      </c>
+      <c r="H30" s="64">
+        <v>110</v>
+      </c>
+      <c r="I30" s="64">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="64">
+        <v>19.25</v>
+      </c>
+      <c r="B31" s="64">
+        <v>18</v>
+      </c>
+      <c r="C31" s="64">
+        <v>0.75</v>
+      </c>
+      <c r="D31" s="64">
+        <v>1</v>
+      </c>
+      <c r="E31" s="64">
+        <v>301</v>
+      </c>
+      <c r="F31" s="64">
+        <v>282</v>
+      </c>
+      <c r="G31" s="64">
+        <v>252</v>
+      </c>
+      <c r="H31" s="64">
+        <v>244</v>
+      </c>
+      <c r="I31" s="64">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="64">
+        <v>19.25</v>
+      </c>
+      <c r="B32" s="64">
+        <v>18</v>
+      </c>
+      <c r="C32" s="64">
+        <v>0.75</v>
+      </c>
+      <c r="D32" s="64">
+        <v>2</v>
+      </c>
+      <c r="E32" s="64">
+        <v>236</v>
+      </c>
+      <c r="F32" s="64">
+        <v>224</v>
+      </c>
+      <c r="G32" s="64">
+        <v>216</v>
+      </c>
+      <c r="H32" s="64">
+        <v>208</v>
+      </c>
+      <c r="I32" s="64">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="64">
+        <v>19.25</v>
+      </c>
+      <c r="B33" s="64">
+        <v>18</v>
+      </c>
+      <c r="C33" s="64">
+        <v>0.75</v>
+      </c>
+      <c r="D33" s="64">
         <v>3</v>
       </c>
-      <c r="B10" s="3">
-        <v>10</v>
-      </c>
-      <c r="C10" s="3">
-        <v>0</v>
-      </c>
-      <c r="D10" s="28">
-        <v>32</v>
-      </c>
-      <c r="E10" s="28">
-        <v>-1</v>
-      </c>
-      <c r="F10" s="3">
-        <v>6.59</v>
-      </c>
-      <c r="G10" s="3">
-        <v>0.52</v>
-      </c>
-      <c r="M10" s="41"/>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11" s="8">
+      <c r="E33" s="64">
+        <v>273</v>
+      </c>
+      <c r="F33" s="64">
+        <v>256</v>
+      </c>
+      <c r="G33" s="64">
+        <v>242</v>
+      </c>
+      <c r="H33" s="64">
+        <v>236</v>
+      </c>
+      <c r="I33" s="64">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="64">
+        <v>19.25</v>
+      </c>
+      <c r="B34" s="64">
+        <v>18</v>
+      </c>
+      <c r="C34" s="64">
+        <v>1</v>
+      </c>
+      <c r="D34" s="64">
+        <v>4</v>
+      </c>
+      <c r="E34" s="64">
+        <v>148</v>
+      </c>
+      <c r="F34" s="64">
+        <v>142</v>
+      </c>
+      <c r="G34" s="64">
+        <v>136</v>
+      </c>
+      <c r="H34" s="64">
+        <v>129</v>
+      </c>
+      <c r="I34" s="64">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" s="64">
+        <v>19.25</v>
+      </c>
+      <c r="B35" s="64">
+        <v>18</v>
+      </c>
+      <c r="C35" s="64">
+        <v>1</v>
+      </c>
+      <c r="D35" s="64">
+        <v>5</v>
+      </c>
+      <c r="E35" s="64">
+        <v>172</v>
+      </c>
+      <c r="F35" s="64">
+        <v>162</v>
+      </c>
+      <c r="G35" s="64">
+        <v>152</v>
+      </c>
+      <c r="H35" s="64">
+        <v>148</v>
+      </c>
+      <c r="I35" s="64">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="64">
+        <v>21</v>
+      </c>
+      <c r="B36" s="64">
+        <v>19.25</v>
+      </c>
+      <c r="C36" s="64">
+        <v>0.75</v>
+      </c>
+      <c r="D36" s="64">
+        <v>1</v>
+      </c>
+      <c r="E36" s="64">
+        <v>361</v>
+      </c>
+      <c r="F36" s="64">
+        <v>342</v>
+      </c>
+      <c r="G36" s="64">
+        <v>314</v>
+      </c>
+      <c r="H36" s="64">
+        <v>306</v>
+      </c>
+      <c r="I36" s="64">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="64">
+        <v>21</v>
+      </c>
+      <c r="B37" s="64">
+        <v>19.25</v>
+      </c>
+      <c r="C37" s="64">
+        <v>0.75</v>
+      </c>
+      <c r="D37" s="64">
         <v>2</v>
       </c>
-      <c r="B11" s="3">
-        <v>100000</v>
-      </c>
-      <c r="C11" s="3">
-        <v>10000</v>
-      </c>
-      <c r="D11" s="3">
-        <v>0.39100000000000001</v>
-      </c>
-      <c r="E11" s="3">
-        <v>-0.14799999999999999</v>
-      </c>
-      <c r="F11" s="3">
-        <v>6.3</v>
-      </c>
-      <c r="G11" s="3">
-        <v>0.378</v>
-      </c>
-      <c r="K11" s="41"/>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12" s="8">
+      <c r="E37" s="64">
+        <v>276</v>
+      </c>
+      <c r="F37" s="64">
+        <v>264</v>
+      </c>
+      <c r="G37" s="64">
+        <v>246</v>
+      </c>
+      <c r="H37" s="64">
+        <v>240</v>
+      </c>
+      <c r="I37" s="64">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" s="64">
+        <v>21</v>
+      </c>
+      <c r="B38" s="64">
+        <v>19.25</v>
+      </c>
+      <c r="C38" s="64">
+        <v>0.75</v>
+      </c>
+      <c r="D38" s="64">
+        <v>3</v>
+      </c>
+      <c r="E38" s="64">
+        <v>318</v>
+      </c>
+      <c r="F38" s="64">
+        <v>308</v>
+      </c>
+      <c r="G38" s="64">
+        <v>279</v>
+      </c>
+      <c r="H38" s="64">
+        <v>269</v>
+      </c>
+      <c r="I38" s="64">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" s="64">
+        <v>21</v>
+      </c>
+      <c r="B39" s="64">
+        <v>19.25</v>
+      </c>
+      <c r="C39" s="64">
+        <v>1</v>
+      </c>
+      <c r="D39" s="64">
+        <v>4</v>
+      </c>
+      <c r="E39" s="64">
+        <v>170</v>
+      </c>
+      <c r="F39" s="64">
+        <v>168</v>
+      </c>
+      <c r="G39" s="64">
+        <v>157</v>
+      </c>
+      <c r="H39" s="64">
+        <v>150</v>
+      </c>
+      <c r="I39" s="64">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" s="64">
+        <v>21</v>
+      </c>
+      <c r="B40" s="64">
+        <v>19.25</v>
+      </c>
+      <c r="C40" s="64">
+        <v>1</v>
+      </c>
+      <c r="D40" s="64">
+        <v>5</v>
+      </c>
+      <c r="E40" s="64">
+        <v>199</v>
+      </c>
+      <c r="F40" s="64">
+        <v>188</v>
+      </c>
+      <c r="G40" s="64">
+        <v>170</v>
+      </c>
+      <c r="H40" s="64">
+        <v>166</v>
+      </c>
+      <c r="I40" s="64">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" s="64">
+        <v>23.25</v>
+      </c>
+      <c r="B41" s="64">
+        <v>21.5</v>
+      </c>
+      <c r="C41" s="64">
+        <v>0.75</v>
+      </c>
+      <c r="D41" s="64">
+        <v>1</v>
+      </c>
+      <c r="E41" s="64">
+        <v>442</v>
+      </c>
+      <c r="F41" s="64">
+        <v>420</v>
+      </c>
+      <c r="G41" s="64">
+        <v>386</v>
+      </c>
+      <c r="H41" s="64">
+        <v>378</v>
+      </c>
+      <c r="I41" s="64">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" s="64">
+        <v>23.25</v>
+      </c>
+      <c r="B42" s="64">
+        <v>21.5</v>
+      </c>
+      <c r="C42" s="64">
+        <v>0.75</v>
+      </c>
+      <c r="D42" s="64">
         <v>2</v>
       </c>
-      <c r="B12" s="3">
-        <v>10000</v>
-      </c>
-      <c r="C12" s="3">
-        <v>1000</v>
-      </c>
-      <c r="D12" s="3">
-        <v>8.1500000000000003E-2</v>
-      </c>
-      <c r="E12" s="3">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="F12" s="3">
-        <v>6.3</v>
-      </c>
-      <c r="G12" s="3">
-        <v>0.378</v>
-      </c>
-      <c r="K12" s="41"/>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="A13" s="8">
+      <c r="E42" s="64">
+        <v>341</v>
+      </c>
+      <c r="F42" s="64">
+        <v>321</v>
+      </c>
+      <c r="G42" s="64">
+        <v>308</v>
+      </c>
+      <c r="H42" s="64">
+        <v>296</v>
+      </c>
+      <c r="I42" s="64">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" s="64">
+        <v>23.25</v>
+      </c>
+      <c r="B43" s="64">
+        <v>21.5</v>
+      </c>
+      <c r="C43" s="64">
+        <v>0.75</v>
+      </c>
+      <c r="D43" s="64">
+        <v>3</v>
+      </c>
+      <c r="E43" s="64">
+        <v>381</v>
+      </c>
+      <c r="F43" s="64">
+        <v>369</v>
+      </c>
+      <c r="G43" s="64">
+        <v>349</v>
+      </c>
+      <c r="H43" s="64">
+        <v>326</v>
+      </c>
+      <c r="I43" s="64">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" s="64">
+        <v>23.25</v>
+      </c>
+      <c r="B44" s="64">
+        <v>21.5</v>
+      </c>
+      <c r="C44" s="64">
+        <v>1</v>
+      </c>
+      <c r="D44" s="64">
+        <v>4</v>
+      </c>
+      <c r="E44" s="64">
+        <v>210</v>
+      </c>
+      <c r="F44" s="64">
+        <v>199</v>
+      </c>
+      <c r="G44" s="64">
+        <v>197</v>
+      </c>
+      <c r="H44" s="64">
+        <v>186</v>
+      </c>
+      <c r="I44" s="64">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" s="64">
+        <v>23.25</v>
+      </c>
+      <c r="B45" s="64">
+        <v>21.5</v>
+      </c>
+      <c r="C45" s="64">
+        <v>1</v>
+      </c>
+      <c r="D45" s="64">
+        <v>5</v>
+      </c>
+      <c r="E45" s="64">
+        <v>247</v>
+      </c>
+      <c r="F45" s="64">
+        <v>230</v>
+      </c>
+      <c r="G45" s="64">
+        <v>216</v>
+      </c>
+      <c r="H45" s="64">
+        <v>208</v>
+      </c>
+      <c r="I45" s="64">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" s="64">
+        <v>25</v>
+      </c>
+      <c r="B46" s="64">
+        <v>23.375</v>
+      </c>
+      <c r="C46" s="64">
+        <v>0.75</v>
+      </c>
+      <c r="D46" s="64">
+        <v>1</v>
+      </c>
+      <c r="E46" s="64">
+        <v>531</v>
+      </c>
+      <c r="F46" s="64">
+        <v>506</v>
+      </c>
+      <c r="G46" s="64">
+        <v>468</v>
+      </c>
+      <c r="H46" s="64">
+        <v>446</v>
+      </c>
+      <c r="I46" s="64">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" s="64">
+        <v>25</v>
+      </c>
+      <c r="B47" s="64">
+        <v>23.375</v>
+      </c>
+      <c r="C47" s="64">
+        <v>0.75</v>
+      </c>
+      <c r="D47" s="64">
         <v>2</v>
       </c>
-      <c r="B13" s="3">
-        <v>1000</v>
-      </c>
-      <c r="C13" s="3">
-        <v>100</v>
-      </c>
-      <c r="D13" s="28">
-        <v>6.09</v>
-      </c>
-      <c r="E13" s="3">
-        <v>-0.60199999999999998</v>
-      </c>
-      <c r="F13" s="3">
-        <v>6.3</v>
-      </c>
-      <c r="G13" s="3">
-        <v>0.378</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
-      <c r="A14" s="8">
+      <c r="E47" s="64">
+        <v>397</v>
+      </c>
+      <c r="F47" s="64">
+        <v>391</v>
+      </c>
+      <c r="G47" s="64">
+        <v>370</v>
+      </c>
+      <c r="H47" s="64">
+        <v>360</v>
+      </c>
+      <c r="I47" s="64">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" s="64">
+        <v>25</v>
+      </c>
+      <c r="B48" s="64">
+        <v>23.375</v>
+      </c>
+      <c r="C48" s="64">
+        <v>0.75</v>
+      </c>
+      <c r="D48" s="64">
+        <v>3</v>
+      </c>
+      <c r="E48" s="64">
+        <v>452</v>
+      </c>
+      <c r="F48" s="64">
+        <v>452</v>
+      </c>
+      <c r="G48" s="64">
+        <v>422</v>
+      </c>
+      <c r="H48" s="64">
+        <v>394</v>
+      </c>
+      <c r="I48" s="64">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" s="64">
+        <v>25</v>
+      </c>
+      <c r="B49" s="64">
+        <v>23.375</v>
+      </c>
+      <c r="C49" s="64">
+        <v>1</v>
+      </c>
+      <c r="D49" s="64">
+        <v>4</v>
+      </c>
+      <c r="E49" s="64">
+        <v>248</v>
+      </c>
+      <c r="F49" s="64">
+        <v>248</v>
+      </c>
+      <c r="G49" s="64">
+        <v>224</v>
+      </c>
+      <c r="H49" s="64">
+        <v>216</v>
+      </c>
+      <c r="I49" s="64">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" s="64">
+        <v>25</v>
+      </c>
+      <c r="B50" s="64">
+        <v>23.375</v>
+      </c>
+      <c r="C50" s="64">
+        <v>1</v>
+      </c>
+      <c r="D50" s="64">
+        <v>5</v>
+      </c>
+      <c r="E50" s="64">
+        <v>282</v>
+      </c>
+      <c r="F50" s="64">
+        <v>282</v>
+      </c>
+      <c r="G50" s="64">
+        <v>256</v>
+      </c>
+      <c r="H50" s="64">
+        <v>252</v>
+      </c>
+      <c r="I50" s="64">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" s="64">
+        <v>27</v>
+      </c>
+      <c r="B51" s="64">
+        <v>25.375</v>
+      </c>
+      <c r="C51" s="64">
+        <v>0.75</v>
+      </c>
+      <c r="D51" s="64">
+        <v>1</v>
+      </c>
+      <c r="E51" s="64">
+        <v>637</v>
+      </c>
+      <c r="F51" s="64">
+        <v>602</v>
+      </c>
+      <c r="G51" s="64">
+        <v>550</v>
+      </c>
+      <c r="H51" s="64">
+        <v>536</v>
+      </c>
+      <c r="I51" s="64">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" s="64">
+        <v>27</v>
+      </c>
+      <c r="B52" s="64">
+        <v>25.375</v>
+      </c>
+      <c r="C52" s="64">
+        <v>0.75</v>
+      </c>
+      <c r="D52" s="64">
         <v>2</v>
       </c>
-      <c r="B14" s="3">
-        <v>100</v>
-      </c>
-      <c r="C14" s="3">
-        <v>10</v>
-      </c>
-      <c r="D14" s="28">
-        <v>32.1</v>
-      </c>
-      <c r="E14" s="3">
-        <v>-0.96299999999999997</v>
-      </c>
-      <c r="F14" s="3">
-        <v>6.3</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0.378</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="A15" s="8">
+      <c r="E52" s="64">
+        <v>465</v>
+      </c>
+      <c r="F52" s="64">
+        <v>452</v>
+      </c>
+      <c r="G52" s="64">
+        <v>427</v>
+      </c>
+      <c r="H52" s="64">
+        <v>418</v>
+      </c>
+      <c r="I52" s="64">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" s="64">
+        <v>27</v>
+      </c>
+      <c r="B53" s="64">
+        <v>25.375</v>
+      </c>
+      <c r="C53" s="64">
+        <v>0.75</v>
+      </c>
+      <c r="D53" s="64">
+        <v>3</v>
+      </c>
+      <c r="E53" s="64">
+        <v>559</v>
+      </c>
+      <c r="F53" s="64">
+        <v>534</v>
+      </c>
+      <c r="G53" s="64">
+        <v>488</v>
+      </c>
+      <c r="H53" s="64">
+        <v>474</v>
+      </c>
+      <c r="I53" s="64">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" s="64">
+        <v>27</v>
+      </c>
+      <c r="B54" s="64">
+        <v>25.375</v>
+      </c>
+      <c r="C54" s="64">
+        <v>1</v>
+      </c>
+      <c r="D54" s="64">
+        <v>4</v>
+      </c>
+      <c r="E54" s="64">
+        <v>286</v>
+      </c>
+      <c r="F54" s="64">
+        <v>275</v>
+      </c>
+      <c r="G54" s="64">
+        <v>267</v>
+      </c>
+      <c r="H54" s="64">
+        <v>257</v>
+      </c>
+      <c r="I54" s="64">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" s="64">
+        <v>27</v>
+      </c>
+      <c r="B55" s="64">
+        <v>25.375</v>
+      </c>
+      <c r="C55" s="64">
+        <v>1</v>
+      </c>
+      <c r="D55" s="64">
+        <v>5</v>
+      </c>
+      <c r="E55" s="64">
+        <v>349</v>
+      </c>
+      <c r="F55" s="64">
+        <v>334</v>
+      </c>
+      <c r="G55" s="64">
+        <v>302</v>
+      </c>
+      <c r="H55" s="64">
+        <v>296</v>
+      </c>
+      <c r="I55" s="64">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" s="64">
+        <v>29</v>
+      </c>
+      <c r="B56" s="64">
+        <v>27.375</v>
+      </c>
+      <c r="C56" s="64">
+        <v>0.75</v>
+      </c>
+      <c r="D56" s="64">
+        <v>1</v>
+      </c>
+      <c r="E56" s="64">
+        <v>721</v>
+      </c>
+      <c r="F56" s="64">
+        <v>692</v>
+      </c>
+      <c r="G56" s="64">
+        <v>640</v>
+      </c>
+      <c r="H56" s="64">
+        <v>620</v>
+      </c>
+      <c r="I56" s="64">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" s="64">
+        <v>29</v>
+      </c>
+      <c r="B57" s="64">
+        <v>27.375</v>
+      </c>
+      <c r="C57" s="64">
+        <v>0.75</v>
+      </c>
+      <c r="D57" s="64">
         <v>2</v>
       </c>
-      <c r="B15" s="3">
-        <v>10</v>
-      </c>
-      <c r="C15" s="3">
-        <v>0</v>
-      </c>
-      <c r="D15" s="28">
+      <c r="E57" s="64">
+        <v>554</v>
+      </c>
+      <c r="F57" s="64">
+        <v>542</v>
+      </c>
+      <c r="G57" s="64">
+        <v>525</v>
+      </c>
+      <c r="H57" s="64">
+        <v>509</v>
+      </c>
+      <c r="I57" s="64">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58" s="64">
+        <v>29</v>
+      </c>
+      <c r="B58" s="64">
+        <v>27.375</v>
+      </c>
+      <c r="C58" s="64">
+        <v>0.75</v>
+      </c>
+      <c r="D58" s="64">
+        <v>3</v>
+      </c>
+      <c r="E58" s="64">
+        <v>630</v>
+      </c>
+      <c r="F58" s="64">
+        <v>604</v>
+      </c>
+      <c r="G58" s="64">
+        <v>556</v>
+      </c>
+      <c r="H58" s="64">
+        <v>538</v>
+      </c>
+      <c r="I58" s="64">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59" s="64">
+        <v>29</v>
+      </c>
+      <c r="B59" s="64">
+        <v>27.375</v>
+      </c>
+      <c r="C59" s="64">
+        <v>1</v>
+      </c>
+      <c r="D59" s="64">
+        <v>4</v>
+      </c>
+      <c r="E59" s="64">
+        <v>348</v>
+      </c>
+      <c r="F59" s="64">
+        <v>340</v>
+      </c>
+      <c r="G59" s="64">
+        <v>322</v>
+      </c>
+      <c r="H59" s="64">
+        <v>314</v>
+      </c>
+      <c r="I59" s="64">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60" s="64">
+        <v>29</v>
+      </c>
+      <c r="B60" s="64">
+        <v>27.375</v>
+      </c>
+      <c r="C60" s="64">
+        <v>1</v>
+      </c>
+      <c r="D60" s="64">
+        <v>5</v>
+      </c>
+      <c r="E60" s="64">
+        <v>397</v>
+      </c>
+      <c r="F60" s="64">
+        <v>376</v>
+      </c>
+      <c r="G60" s="64">
+        <v>354</v>
+      </c>
+      <c r="H60" s="64">
+        <v>334</v>
+      </c>
+      <c r="I60" s="64">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61" s="64">
+        <v>31</v>
+      </c>
+      <c r="B61" s="64">
+        <v>29.274999999999999</v>
+      </c>
+      <c r="C61" s="64">
+        <v>0.75</v>
+      </c>
+      <c r="D61" s="64">
+        <v>1</v>
+      </c>
+      <c r="E61" s="64">
+        <v>847</v>
+      </c>
+      <c r="F61" s="64">
+        <v>822</v>
+      </c>
+      <c r="G61" s="64">
+        <v>766</v>
+      </c>
+      <c r="H61" s="64">
+        <v>722</v>
+      </c>
+      <c r="I61" s="64">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62" s="64">
+        <v>31</v>
+      </c>
+      <c r="B62" s="64">
+        <v>29.274999999999999</v>
+      </c>
+      <c r="C62" s="64">
+        <v>0.75</v>
+      </c>
+      <c r="D62" s="64">
+        <v>2</v>
+      </c>
+      <c r="E62" s="64">
+        <v>633</v>
+      </c>
+      <c r="F62" s="64">
+        <v>616</v>
+      </c>
+      <c r="G62" s="64">
+        <v>590</v>
+      </c>
+      <c r="H62" s="64">
+        <v>586</v>
+      </c>
+      <c r="I62" s="64">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63" s="64">
+        <v>31</v>
+      </c>
+      <c r="B63" s="64">
+        <v>29.274999999999999</v>
+      </c>
+      <c r="C63" s="64">
+        <v>0.75</v>
+      </c>
+      <c r="D63" s="64">
+        <v>3</v>
+      </c>
+      <c r="E63" s="64">
+        <v>745</v>
+      </c>
+      <c r="F63" s="64">
+        <v>728</v>
+      </c>
+      <c r="G63" s="64">
+        <v>678</v>
+      </c>
+      <c r="H63" s="64">
+        <v>666</v>
+      </c>
+      <c r="I63" s="64">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="A64" s="64">
+        <v>31</v>
+      </c>
+      <c r="B64" s="64">
+        <v>29.274999999999999</v>
+      </c>
+      <c r="C64" s="64">
+        <v>1</v>
+      </c>
+      <c r="D64" s="64">
+        <v>4</v>
+      </c>
+      <c r="E64" s="64">
+        <v>402</v>
+      </c>
+      <c r="F64" s="64">
+        <v>390</v>
+      </c>
+      <c r="G64" s="64">
+        <v>366</v>
+      </c>
+      <c r="H64" s="64">
+        <v>360</v>
+      </c>
+      <c r="I64" s="64">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
+      <c r="A65" s="64">
+        <v>31</v>
+      </c>
+      <c r="B65" s="64">
+        <v>29.274999999999999</v>
+      </c>
+      <c r="C65" s="64">
+        <v>1</v>
+      </c>
+      <c r="D65" s="64">
+        <v>5</v>
+      </c>
+      <c r="E65" s="64">
+        <v>472</v>
+      </c>
+      <c r="F65" s="64">
+        <v>454</v>
+      </c>
+      <c r="G65" s="64">
+        <v>430</v>
+      </c>
+      <c r="H65" s="64">
+        <v>420</v>
+      </c>
+      <c r="I65" s="64">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
+      <c r="A66" s="64">
+        <v>33</v>
+      </c>
+      <c r="B66" s="64">
+        <v>32.375</v>
+      </c>
+      <c r="C66" s="64">
+        <v>0.75</v>
+      </c>
+      <c r="D66" s="64">
+        <v>1</v>
+      </c>
+      <c r="E66" s="64">
+        <v>974</v>
+      </c>
+      <c r="F66" s="64">
+        <v>938</v>
+      </c>
+      <c r="G66" s="64">
+        <v>872</v>
+      </c>
+      <c r="H66" s="64">
+        <v>852</v>
+      </c>
+      <c r="I66" s="64">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="A67" s="64">
+        <v>33</v>
+      </c>
+      <c r="B67" s="64">
+        <v>32.375</v>
+      </c>
+      <c r="C67" s="64">
+        <v>0.75</v>
+      </c>
+      <c r="D67" s="64">
+        <v>2</v>
+      </c>
+      <c r="E67" s="64">
+        <v>742</v>
+      </c>
+      <c r="F67" s="64">
+        <v>713</v>
+      </c>
+      <c r="G67" s="64">
+        <v>687</v>
+      </c>
+      <c r="H67" s="64">
+        <v>683</v>
+      </c>
+      <c r="I67" s="64">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="A68" s="64">
+        <v>33</v>
+      </c>
+      <c r="B68" s="64">
+        <v>32.375</v>
+      </c>
+      <c r="C68" s="64">
+        <v>0.75</v>
+      </c>
+      <c r="D68" s="64">
+        <v>3</v>
+      </c>
+      <c r="E68" s="64">
+        <v>856</v>
+      </c>
+      <c r="F68" s="64">
+        <v>830</v>
+      </c>
+      <c r="G68" s="64">
+        <v>774</v>
+      </c>
+      <c r="H68" s="64">
+        <v>760</v>
+      </c>
+      <c r="I68" s="64">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="A69" s="64">
+        <v>33</v>
+      </c>
+      <c r="B69" s="64">
+        <v>32.375</v>
+      </c>
+      <c r="C69" s="64">
+        <v>1</v>
+      </c>
+      <c r="D69" s="64">
+        <v>4</v>
+      </c>
+      <c r="E69" s="64">
+        <v>460</v>
+      </c>
+      <c r="F69" s="64">
+        <v>453</v>
+      </c>
+      <c r="G69" s="64">
+        <v>430</v>
+      </c>
+      <c r="H69" s="64">
+        <v>420</v>
+      </c>
+      <c r="I69" s="64">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
+      <c r="A70" s="64">
+        <v>33</v>
+      </c>
+      <c r="B70" s="64">
+        <v>32.375</v>
+      </c>
+      <c r="C70" s="64">
+        <v>1</v>
+      </c>
+      <c r="D70" s="64">
+        <v>5</v>
+      </c>
+      <c r="E70" s="64">
+        <v>538</v>
+      </c>
+      <c r="F70" s="64">
+        <v>522</v>
+      </c>
+      <c r="G70" s="64">
+        <v>486</v>
+      </c>
+      <c r="H70" s="64">
+        <v>470</v>
+      </c>
+      <c r="I70" s="64">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
+      <c r="A71" s="64">
         <v>35</v>
       </c>
-      <c r="E15" s="28">
-        <v>-1</v>
-      </c>
-      <c r="F15" s="3">
-        <v>6.3</v>
-      </c>
-      <c r="G15" s="3">
-        <v>0.378</v>
+      <c r="B71" s="64">
+        <v>33.375</v>
+      </c>
+      <c r="C71" s="64">
+        <v>0.75</v>
+      </c>
+      <c r="D71" s="64">
+        <v>1</v>
+      </c>
+      <c r="E71" s="64">
+        <v>1102</v>
+      </c>
+      <c r="F71" s="64">
+        <v>1068</v>
+      </c>
+      <c r="G71" s="64">
+        <v>1004</v>
+      </c>
+      <c r="H71" s="64">
+        <v>988</v>
+      </c>
+      <c r="I71" s="64">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
+      <c r="A72" s="64">
+        <v>35</v>
+      </c>
+      <c r="B72" s="64">
+        <v>33.375</v>
+      </c>
+      <c r="C72" s="64">
+        <v>0.75</v>
+      </c>
+      <c r="D72" s="64">
+        <v>2</v>
+      </c>
+      <c r="E72" s="64">
+        <v>827</v>
+      </c>
+      <c r="F72" s="64">
+        <v>811</v>
+      </c>
+      <c r="G72" s="64">
+        <v>773</v>
+      </c>
+      <c r="H72" s="64">
+        <v>762</v>
+      </c>
+      <c r="I72" s="64">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
+      <c r="A73" s="64">
+        <v>35</v>
+      </c>
+      <c r="B73" s="64">
+        <v>33.375</v>
+      </c>
+      <c r="C73" s="64">
+        <v>0.75</v>
+      </c>
+      <c r="D73" s="64">
+        <v>3</v>
+      </c>
+      <c r="E73" s="64">
+        <v>970</v>
+      </c>
+      <c r="F73" s="64">
+        <v>938</v>
+      </c>
+      <c r="G73" s="64">
+        <v>882</v>
+      </c>
+      <c r="H73" s="64">
+        <v>864</v>
+      </c>
+      <c r="I73" s="64">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
+      <c r="A74" s="64">
+        <v>35</v>
+      </c>
+      <c r="B74" s="64">
+        <v>33.375</v>
+      </c>
+      <c r="C74" s="64">
+        <v>1</v>
+      </c>
+      <c r="D74" s="64">
+        <v>4</v>
+      </c>
+      <c r="E74" s="64">
+        <v>517</v>
+      </c>
+      <c r="F74" s="64">
+        <v>513</v>
+      </c>
+      <c r="G74" s="64">
+        <v>487</v>
+      </c>
+      <c r="H74" s="64">
+        <v>486</v>
+      </c>
+      <c r="I74" s="64">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
+      <c r="A75" s="64">
+        <v>35</v>
+      </c>
+      <c r="B75" s="64">
+        <v>33.375</v>
+      </c>
+      <c r="C75" s="64">
+        <v>1</v>
+      </c>
+      <c r="D75" s="64">
+        <v>5</v>
+      </c>
+      <c r="E75" s="64">
+        <v>608</v>
+      </c>
+      <c r="F75" s="64">
+        <v>592</v>
+      </c>
+      <c r="G75" s="64">
+        <v>566</v>
+      </c>
+      <c r="H75" s="64">
+        <v>546</v>
+      </c>
+      <c r="I75" s="64">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
+      <c r="A76" s="64">
+        <v>37</v>
+      </c>
+      <c r="B76" s="64">
+        <v>35.25</v>
+      </c>
+      <c r="C76" s="64">
+        <v>0.75</v>
+      </c>
+      <c r="D76" s="64">
+        <v>1</v>
+      </c>
+      <c r="E76" s="64">
+        <v>1142</v>
+      </c>
+      <c r="F76" s="64">
+        <v>1200</v>
+      </c>
+      <c r="G76" s="64">
+        <v>1144</v>
+      </c>
+      <c r="H76" s="64">
+        <v>1104</v>
+      </c>
+      <c r="I76" s="64">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
+      <c r="A77" s="64">
+        <v>37</v>
+      </c>
+      <c r="B77" s="64">
+        <v>35.25</v>
+      </c>
+      <c r="C77" s="64">
+        <v>0.75</v>
+      </c>
+      <c r="D77" s="64">
+        <v>2</v>
+      </c>
+      <c r="E77" s="64">
+        <v>929</v>
+      </c>
+      <c r="F77" s="64">
+        <v>902</v>
+      </c>
+      <c r="G77" s="64">
+        <v>880</v>
+      </c>
+      <c r="H77" s="64">
+        <v>870</v>
+      </c>
+      <c r="I77" s="64">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
+      <c r="A78" s="64">
+        <v>37</v>
+      </c>
+      <c r="B78" s="64">
+        <v>35.25</v>
+      </c>
+      <c r="C78" s="64">
+        <v>0.75</v>
+      </c>
+      <c r="D78" s="64">
+        <v>3</v>
+      </c>
+      <c r="E78" s="64">
+        <v>1090</v>
+      </c>
+      <c r="F78" s="64">
+        <v>1042</v>
+      </c>
+      <c r="G78" s="64">
+        <v>982</v>
+      </c>
+      <c r="H78" s="64">
+        <v>966</v>
+      </c>
+      <c r="I78" s="64">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
+      <c r="A79" s="64">
+        <v>37</v>
+      </c>
+      <c r="B79" s="64">
+        <v>35.25</v>
+      </c>
+      <c r="C79" s="64">
+        <v>1</v>
+      </c>
+      <c r="D79" s="64">
+        <v>4</v>
+      </c>
+      <c r="E79" s="64">
+        <v>588</v>
+      </c>
+      <c r="F79" s="64">
+        <v>580</v>
+      </c>
+      <c r="G79" s="64">
+        <v>555</v>
+      </c>
+      <c r="H79" s="64">
+        <v>544</v>
+      </c>
+      <c r="I79" s="64">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
+      <c r="A80" s="64">
+        <v>37</v>
+      </c>
+      <c r="B80" s="64">
+        <v>35.25</v>
+      </c>
+      <c r="C80" s="64">
+        <v>1</v>
+      </c>
+      <c r="D80" s="64">
+        <v>5</v>
+      </c>
+      <c r="E80" s="64">
+        <v>678</v>
+      </c>
+      <c r="F80" s="64">
+        <v>664</v>
+      </c>
+      <c r="G80" s="64">
+        <v>632</v>
+      </c>
+      <c r="H80" s="64">
+        <v>614</v>
+      </c>
+      <c r="I80" s="64">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
+      <c r="A81" s="64">
+        <v>39</v>
+      </c>
+      <c r="B81" s="64">
+        <v>37.25</v>
+      </c>
+      <c r="C81" s="64">
+        <v>0.75</v>
+      </c>
+      <c r="D81" s="64">
+        <v>1</v>
+      </c>
+      <c r="E81" s="64">
+        <v>1377</v>
+      </c>
+      <c r="F81" s="64">
+        <v>1330</v>
+      </c>
+      <c r="G81" s="64">
+        <v>1258</v>
+      </c>
+      <c r="H81" s="64">
+        <v>1248</v>
+      </c>
+      <c r="I81" s="64">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
+      <c r="A82" s="64">
+        <v>39</v>
+      </c>
+      <c r="B82" s="64">
+        <v>37.25</v>
+      </c>
+      <c r="C82" s="64">
+        <v>0.75</v>
+      </c>
+      <c r="D82" s="64">
+        <v>2</v>
+      </c>
+      <c r="E82" s="64">
+        <v>1025</v>
+      </c>
+      <c r="F82" s="64">
+        <v>1012</v>
+      </c>
+      <c r="G82" s="64">
+        <v>984</v>
+      </c>
+      <c r="H82" s="64">
+        <v>964</v>
+      </c>
+      <c r="I82" s="64">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
+      <c r="A83" s="64">
+        <v>39</v>
+      </c>
+      <c r="B83" s="64">
+        <v>37.25</v>
+      </c>
+      <c r="C83" s="64">
+        <v>0.75</v>
+      </c>
+      <c r="D83" s="64">
+        <v>3</v>
+      </c>
+      <c r="E83" s="64">
+        <v>1206</v>
+      </c>
+      <c r="F83" s="64">
+        <v>1176</v>
+      </c>
+      <c r="G83" s="64">
+        <v>1128</v>
+      </c>
+      <c r="H83" s="64">
+        <v>1100</v>
+      </c>
+      <c r="I83" s="64">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
+      <c r="A84" s="64">
+        <v>39</v>
+      </c>
+      <c r="B84" s="64">
+        <v>37.25</v>
+      </c>
+      <c r="C84" s="64">
+        <v>1</v>
+      </c>
+      <c r="D84" s="64">
+        <v>4</v>
+      </c>
+      <c r="E84" s="64">
+        <v>645</v>
+      </c>
+      <c r="F84" s="64">
+        <v>637</v>
+      </c>
+      <c r="G84" s="64">
+        <v>619</v>
+      </c>
+      <c r="H84" s="64">
+        <v>610</v>
+      </c>
+      <c r="I84" s="64">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
+      <c r="A85" s="64">
+        <v>39</v>
+      </c>
+      <c r="B85" s="64">
+        <v>37.25</v>
+      </c>
+      <c r="C85" s="64">
+        <v>1</v>
+      </c>
+      <c r="D85" s="64">
+        <v>5</v>
+      </c>
+      <c r="E85" s="64">
+        <v>766</v>
+      </c>
+      <c r="F85" s="64">
+        <v>736</v>
+      </c>
+      <c r="G85" s="64">
+        <v>700</v>
+      </c>
+      <c r="H85" s="64">
+        <v>688</v>
+      </c>
+      <c r="I85" s="64">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
+      <c r="A86" s="64">
+        <v>42</v>
+      </c>
+      <c r="B86" s="64">
+        <v>40.25</v>
+      </c>
+      <c r="C86" s="64">
+        <v>0.75</v>
+      </c>
+      <c r="D86" s="64">
+        <v>1</v>
+      </c>
+      <c r="E86" s="64">
+        <v>1611</v>
+      </c>
+      <c r="F86" s="64">
+        <v>1580</v>
+      </c>
+      <c r="G86" s="64">
+        <v>1498</v>
+      </c>
+      <c r="H86" s="64">
+        <v>1464</v>
+      </c>
+      <c r="I86" s="64">
+        <v>1456</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
+      <c r="A87" s="64">
+        <v>42</v>
+      </c>
+      <c r="B87" s="64">
+        <v>40.25</v>
+      </c>
+      <c r="C87" s="64">
+        <v>0.75</v>
+      </c>
+      <c r="D87" s="64">
+        <v>2</v>
+      </c>
+      <c r="E87" s="64">
+        <v>1201</v>
+      </c>
+      <c r="F87" s="64">
+        <v>1171</v>
+      </c>
+      <c r="G87" s="64">
+        <v>1144</v>
+      </c>
+      <c r="H87" s="64">
+        <v>1109</v>
+      </c>
+      <c r="I87" s="64">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
+      <c r="A88" s="64">
+        <v>42</v>
+      </c>
+      <c r="B88" s="64">
+        <v>40.25</v>
+      </c>
+      <c r="C88" s="64">
+        <v>0.75</v>
+      </c>
+      <c r="D88" s="64">
+        <v>3</v>
+      </c>
+      <c r="E88" s="64">
+        <v>1409</v>
+      </c>
+      <c r="F88" s="64">
+        <v>1378</v>
+      </c>
+      <c r="G88" s="64">
+        <v>1314</v>
+      </c>
+      <c r="H88" s="64">
+        <v>1296</v>
+      </c>
+      <c r="I88" s="64">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
+      <c r="A89" s="64">
+        <v>42</v>
+      </c>
+      <c r="B89" s="64">
+        <v>40.25</v>
+      </c>
+      <c r="C89" s="64">
+        <v>1</v>
+      </c>
+      <c r="D89" s="64">
+        <v>4</v>
+      </c>
+      <c r="E89" s="64">
+        <v>745</v>
+      </c>
+      <c r="F89" s="64">
+        <v>728</v>
+      </c>
+      <c r="G89" s="64">
+        <v>708</v>
+      </c>
+      <c r="H89" s="64">
+        <v>686</v>
+      </c>
+      <c r="I89" s="64">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
+      <c r="A90" s="64">
+        <v>42</v>
+      </c>
+      <c r="B90" s="64">
+        <v>40.25</v>
+      </c>
+      <c r="C90" s="64">
+        <v>1</v>
+      </c>
+      <c r="D90" s="64">
+        <v>5</v>
+      </c>
+      <c r="E90" s="64">
+        <v>890</v>
+      </c>
+      <c r="F90" s="64">
+        <v>878</v>
+      </c>
+      <c r="G90" s="64">
+        <v>834</v>
+      </c>
+      <c r="H90" s="64">
+        <v>808</v>
+      </c>
+      <c r="I90" s="64">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
+      <c r="A91" s="64">
+        <v>44</v>
+      </c>
+      <c r="B91" s="64">
+        <v>42.25</v>
+      </c>
+      <c r="C91" s="64">
+        <v>0.75</v>
+      </c>
+      <c r="D91" s="64">
+        <v>1</v>
+      </c>
+      <c r="E91" s="64">
+        <v>1782</v>
+      </c>
+      <c r="F91" s="64">
+        <v>1738</v>
+      </c>
+      <c r="G91" s="64">
+        <v>1650</v>
+      </c>
+      <c r="H91" s="64">
+        <v>1624</v>
+      </c>
+      <c r="I91" s="64">
+        <v>1592</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
+      <c r="A92" s="64">
+        <v>44</v>
+      </c>
+      <c r="B92" s="64">
+        <v>42.25</v>
+      </c>
+      <c r="C92" s="64">
+        <v>0.75</v>
+      </c>
+      <c r="D92" s="64">
+        <v>2</v>
+      </c>
+      <c r="E92" s="64">
+        <v>1349</v>
+      </c>
+      <c r="F92" s="64">
+        <v>1327</v>
+      </c>
+      <c r="G92" s="64">
+        <v>1286</v>
+      </c>
+      <c r="H92" s="64">
+        <v>1270</v>
+      </c>
+      <c r="I92" s="64">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
+      <c r="A93" s="64">
+        <v>44</v>
+      </c>
+      <c r="B93" s="64">
+        <v>42.25</v>
+      </c>
+      <c r="C93" s="64">
+        <v>0.75</v>
+      </c>
+      <c r="D93" s="64">
+        <v>3</v>
+      </c>
+      <c r="E93" s="64">
+        <v>1562</v>
+      </c>
+      <c r="F93" s="64">
+        <v>1535</v>
+      </c>
+      <c r="G93" s="64">
+        <v>1464</v>
+      </c>
+      <c r="H93" s="64">
+        <v>1422</v>
+      </c>
+      <c r="I93" s="64">
+        <v>1394</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
+      <c r="A94" s="64">
+        <v>44</v>
+      </c>
+      <c r="B94" s="64">
+        <v>42.25</v>
+      </c>
+      <c r="C94" s="64">
+        <v>1</v>
+      </c>
+      <c r="D94" s="64">
+        <v>4</v>
+      </c>
+      <c r="E94" s="64">
+        <v>856</v>
+      </c>
+      <c r="F94" s="64">
+        <v>837</v>
+      </c>
+      <c r="G94" s="64">
+        <v>809</v>
+      </c>
+      <c r="H94" s="64">
+        <v>778</v>
+      </c>
+      <c r="I94" s="64">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
+      <c r="A95" s="64">
+        <v>44</v>
+      </c>
+      <c r="B95" s="64">
+        <v>42.25</v>
+      </c>
+      <c r="C95" s="64">
+        <v>1</v>
+      </c>
+      <c r="D95" s="64">
+        <v>5</v>
+      </c>
+      <c r="E95" s="64">
+        <v>990</v>
+      </c>
+      <c r="F95" s="64">
+        <v>966</v>
+      </c>
+      <c r="G95" s="64">
+        <v>921</v>
+      </c>
+      <c r="H95" s="64">
+        <v>888</v>
+      </c>
+      <c r="I95" s="64">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
+      <c r="A96" s="64">
+        <v>48</v>
+      </c>
+      <c r="B96" s="64">
+        <v>46</v>
+      </c>
+      <c r="C96" s="64">
+        <v>0.75</v>
+      </c>
+      <c r="D96" s="64">
+        <v>1</v>
+      </c>
+      <c r="E96" s="64">
+        <v>1965</v>
+      </c>
+      <c r="F96" s="64">
+        <v>1908</v>
+      </c>
+      <c r="G96" s="64">
+        <v>1834</v>
+      </c>
+      <c r="H96" s="64">
+        <v>1801</v>
+      </c>
+      <c r="I96" s="64">
+        <v>1766</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
+      <c r="A97" s="64">
+        <v>48</v>
+      </c>
+      <c r="B97" s="64">
+        <v>46</v>
+      </c>
+      <c r="C97" s="64">
+        <v>0.75</v>
+      </c>
+      <c r="D97" s="64">
+        <v>2</v>
+      </c>
+      <c r="E97" s="64">
+        <v>1620</v>
+      </c>
+      <c r="F97" s="64">
+        <v>1598</v>
+      </c>
+      <c r="G97" s="64">
+        <v>1553</v>
+      </c>
+      <c r="H97" s="64">
+        <v>1535</v>
+      </c>
+      <c r="I97" s="64">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
+      <c r="A98" s="64">
+        <v>48</v>
+      </c>
+      <c r="B98" s="64">
+        <v>46</v>
+      </c>
+      <c r="C98" s="64">
+        <v>0.75</v>
+      </c>
+      <c r="D98" s="64">
+        <v>3</v>
+      </c>
+      <c r="E98" s="64">
+        <v>1887</v>
+      </c>
+      <c r="F98" s="64">
+        <v>1845</v>
+      </c>
+      <c r="G98" s="64">
+        <v>1766</v>
+      </c>
+      <c r="H98" s="64">
+        <v>1724</v>
+      </c>
+      <c r="I98" s="64">
+        <v>1690</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
+      <c r="A99" s="64">
+        <v>48</v>
+      </c>
+      <c r="B99" s="64">
+        <v>46</v>
+      </c>
+      <c r="C99" s="64">
+        <v>1</v>
+      </c>
+      <c r="D99" s="64">
+        <v>4</v>
+      </c>
+      <c r="E99" s="64">
+        <v>1029</v>
+      </c>
+      <c r="F99" s="64">
+        <v>1010</v>
+      </c>
+      <c r="G99" s="64">
+        <v>975</v>
+      </c>
+      <c r="H99" s="64">
+        <v>959</v>
+      </c>
+      <c r="I99" s="64">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
+      <c r="A100" s="64">
+        <v>48</v>
+      </c>
+      <c r="B100" s="64">
+        <v>46</v>
+      </c>
+      <c r="C100" s="64">
+        <v>1</v>
+      </c>
+      <c r="D100" s="64">
+        <v>5</v>
+      </c>
+      <c r="E100" s="64">
+        <v>1188</v>
+      </c>
+      <c r="F100" s="64">
+        <v>1163</v>
+      </c>
+      <c r="G100" s="64">
+        <v>1098</v>
+      </c>
+      <c r="H100" s="64">
+        <v>1076</v>
+      </c>
+      <c r="I100" s="64">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
+      <c r="A101" s="64">
+        <v>52</v>
+      </c>
+      <c r="B101" s="64">
+        <v>50</v>
+      </c>
+      <c r="C101" s="64">
+        <v>0.75</v>
+      </c>
+      <c r="D101" s="64">
+        <v>1</v>
+      </c>
+      <c r="E101" s="64">
+        <v>2347</v>
+      </c>
+      <c r="F101" s="64">
+        <v>2273</v>
+      </c>
+      <c r="G101" s="64">
+        <v>2178</v>
+      </c>
+      <c r="H101" s="64">
+        <v>2152</v>
+      </c>
+      <c r="I101" s="64">
+        <v>2110</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
+      <c r="A102" s="64">
+        <v>52</v>
+      </c>
+      <c r="B102" s="64">
+        <v>50</v>
+      </c>
+      <c r="C102" s="64">
+        <v>0.75</v>
+      </c>
+      <c r="D102" s="64">
+        <v>2</v>
+      </c>
+      <c r="E102" s="64">
+        <v>1918</v>
+      </c>
+      <c r="F102" s="64">
+        <v>1890</v>
+      </c>
+      <c r="G102" s="64">
+        <v>1848</v>
+      </c>
+      <c r="H102" s="64">
+        <v>1826</v>
+      </c>
+      <c r="I102" s="64">
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
+      <c r="A103" s="64">
+        <v>52</v>
+      </c>
+      <c r="B103" s="64">
+        <v>50</v>
+      </c>
+      <c r="C103" s="64">
+        <v>0.75</v>
+      </c>
+      <c r="D103" s="64">
+        <v>3</v>
+      </c>
+      <c r="E103" s="64">
+        <v>2212</v>
+      </c>
+      <c r="F103" s="64">
+        <v>2183</v>
+      </c>
+      <c r="G103" s="64">
+        <v>2092</v>
+      </c>
+      <c r="H103" s="64">
+        <v>2050</v>
+      </c>
+      <c r="I103" s="64">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
+      <c r="A104" s="64">
+        <v>52</v>
+      </c>
+      <c r="B104" s="64">
+        <v>50</v>
+      </c>
+      <c r="C104" s="64">
+        <v>1</v>
+      </c>
+      <c r="D104" s="64">
+        <v>4</v>
+      </c>
+      <c r="E104" s="64">
+        <v>1216</v>
+      </c>
+      <c r="F104" s="64">
+        <v>1196</v>
+      </c>
+      <c r="G104" s="64">
+        <v>1167</v>
+      </c>
+      <c r="H104" s="64">
+        <v>1132</v>
+      </c>
+      <c r="I104" s="64">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
+      <c r="A105" s="64">
+        <v>52</v>
+      </c>
+      <c r="B105" s="64">
+        <v>50</v>
+      </c>
+      <c r="C105" s="64">
+        <v>1</v>
+      </c>
+      <c r="D105" s="64">
+        <v>5</v>
+      </c>
+      <c r="E105" s="64">
+        <v>1405</v>
+      </c>
+      <c r="F105" s="64">
+        <v>1375</v>
+      </c>
+      <c r="G105" s="64">
+        <v>1323</v>
+      </c>
+      <c r="H105" s="64">
+        <v>1287</v>
+      </c>
+      <c r="I105" s="64">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
+      <c r="A106" s="64">
+        <v>56</v>
+      </c>
+      <c r="B106" s="64">
+        <v>54</v>
+      </c>
+      <c r="C106" s="64">
+        <v>0.75</v>
+      </c>
+      <c r="D106" s="64">
+        <v>1</v>
+      </c>
+      <c r="E106" s="64">
+        <v>2704</v>
+      </c>
+      <c r="F106" s="64">
+        <v>2660</v>
+      </c>
+      <c r="G106" s="64">
+        <v>2556</v>
+      </c>
+      <c r="H106" s="64">
+        <v>2526</v>
+      </c>
+      <c r="I106" s="64">
+        <v>2489</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
+      <c r="A107" s="64">
+        <v>56</v>
+      </c>
+      <c r="B107" s="64">
+        <v>54</v>
+      </c>
+      <c r="C107" s="64">
+        <v>0.75</v>
+      </c>
+      <c r="D107" s="64">
+        <v>2</v>
+      </c>
+      <c r="E107" s="64">
+        <v>2241</v>
+      </c>
+      <c r="F107" s="64">
+        <v>2214</v>
+      </c>
+      <c r="G107" s="64">
+        <v>2167</v>
+      </c>
+      <c r="H107" s="64">
+        <v>2142</v>
+      </c>
+      <c r="I107" s="64">
+        <v>2110</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
+      <c r="A108" s="64">
+        <v>56</v>
+      </c>
+      <c r="B108" s="64">
+        <v>54</v>
+      </c>
+      <c r="C108" s="64">
+        <v>0.75</v>
+      </c>
+      <c r="D108" s="64">
+        <v>3</v>
+      </c>
+      <c r="E108" s="64">
+        <v>2588</v>
+      </c>
+      <c r="F108" s="64">
+        <v>2545</v>
+      </c>
+      <c r="G108" s="64">
+        <v>2446</v>
+      </c>
+      <c r="H108" s="64">
+        <v>2409</v>
+      </c>
+      <c r="I108" s="64">
+        <v>2373</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
+      <c r="A109" s="64">
+        <v>56</v>
+      </c>
+      <c r="B109" s="64">
+        <v>54</v>
+      </c>
+      <c r="C109" s="64">
+        <v>1</v>
+      </c>
+      <c r="D109" s="64">
+        <v>4</v>
+      </c>
+      <c r="E109" s="64">
+        <v>1420</v>
+      </c>
+      <c r="F109" s="64">
+        <v>1400</v>
+      </c>
+      <c r="G109" s="64">
+        <v>1371</v>
+      </c>
+      <c r="H109" s="64">
+        <v>1333</v>
+      </c>
+      <c r="I109" s="64">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
+      <c r="A110" s="64">
+        <v>56</v>
+      </c>
+      <c r="B110" s="64">
+        <v>54</v>
+      </c>
+      <c r="C110" s="64">
+        <v>1</v>
+      </c>
+      <c r="D110" s="64">
+        <v>5</v>
+      </c>
+      <c r="E110" s="64">
+        <v>1638</v>
+      </c>
+      <c r="F110" s="64">
+        <v>1605</v>
+      </c>
+      <c r="G110" s="64">
+        <v>1549</v>
+      </c>
+      <c r="H110" s="64">
+        <v>1501</v>
+      </c>
+      <c r="I110" s="64">
+        <v>1472</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
+      <c r="A111" s="64">
+        <v>60</v>
+      </c>
+      <c r="B111" s="64">
+        <v>58</v>
+      </c>
+      <c r="C111" s="64">
+        <v>0.75</v>
+      </c>
+      <c r="D111" s="64">
+        <v>1</v>
+      </c>
+      <c r="E111" s="64">
+        <v>3399</v>
+      </c>
+      <c r="F111" s="64">
+        <v>3343</v>
+      </c>
+      <c r="G111" s="64">
+        <v>3232</v>
+      </c>
+      <c r="H111" s="64">
+        <v>3195</v>
+      </c>
+      <c r="I111" s="64">
+        <v>3162</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
+      <c r="A112" s="64">
+        <v>60</v>
+      </c>
+      <c r="B112" s="64">
+        <v>58</v>
+      </c>
+      <c r="C112" s="64">
+        <v>0.75</v>
+      </c>
+      <c r="D112" s="64">
+        <v>2</v>
+      </c>
+      <c r="E112" s="64">
+        <v>2587</v>
+      </c>
+      <c r="F112" s="64">
+        <v>2556</v>
+      </c>
+      <c r="G112" s="64">
+        <v>2510</v>
+      </c>
+      <c r="H112" s="64">
+        <v>2485</v>
+      </c>
+      <c r="I112" s="64">
+        <v>2460</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
+      <c r="A113" s="64">
+        <v>60</v>
+      </c>
+      <c r="B113" s="64">
+        <v>58</v>
+      </c>
+      <c r="C113" s="64">
+        <v>0.75</v>
+      </c>
+      <c r="D113" s="64">
+        <v>3</v>
+      </c>
+      <c r="E113" s="64">
+        <v>2987</v>
+      </c>
+      <c r="F113" s="64">
+        <v>2945</v>
+      </c>
+      <c r="G113" s="64">
+        <v>2827</v>
+      </c>
+      <c r="H113" s="64">
+        <v>2798</v>
+      </c>
+      <c r="I113" s="64">
+        <v>2770</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
+      <c r="A114" s="64">
+        <v>60</v>
+      </c>
+      <c r="B114" s="64">
+        <v>58</v>
+      </c>
+      <c r="C114" s="64">
+        <v>1</v>
+      </c>
+      <c r="D114" s="64">
+        <v>4</v>
+      </c>
+      <c r="E114" s="64">
+        <v>1639</v>
+      </c>
+      <c r="F114" s="64">
+        <v>1615</v>
+      </c>
+      <c r="G114" s="64">
+        <v>1587</v>
+      </c>
+      <c r="H114" s="64">
+        <v>1553</v>
+      </c>
+      <c r="I114" s="64">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
+      <c r="A115" s="64">
+        <v>60</v>
+      </c>
+      <c r="B115" s="64">
+        <v>58</v>
+      </c>
+      <c r="C115" s="64">
+        <v>1</v>
+      </c>
+      <c r="D115" s="64">
+        <v>5</v>
+      </c>
+      <c r="E115" s="64">
+        <v>1889</v>
+      </c>
+      <c r="F115" s="64">
+        <v>1851</v>
+      </c>
+      <c r="G115" s="64">
+        <v>1797</v>
+      </c>
+      <c r="H115" s="64">
+        <v>1761</v>
+      </c>
+      <c r="I115" s="64">
+        <v>1726</v>
       </c>
     </row>
   </sheetData>
